--- a/capiq_data/in_process_data/IQ329141.xlsx
+++ b/capiq_data/in_process_data/IQ329141.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E19A5E-D94F-478F-B6F1-2F7E953DC43F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EC8877-8FAA-4A0A-A4E1-306FDDAFA90D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"62a13f98-223d-49d4-81f3-eab984d2e756"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"5a083589-445b-4544-bfb5-c59b7b210da4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>27.027000000000001</v>
+        <v>54.280999999999999</v>
       </c>
       <c r="D2">
-        <v>217.06899999999999</v>
+        <v>153.828</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>129.52600000000001</v>
+        <v>103.783</v>
       </c>
       <c r="G2">
-        <v>611.98199999999997</v>
+        <v>73.966999999999999</v>
       </c>
       <c r="H2">
-        <v>7821.4880000000003</v>
+        <v>4397.2250000000004</v>
       </c>
       <c r="I2">
-        <v>34.433</v>
+        <v>19.997</v>
       </c>
       <c r="J2">
-        <v>3973.085</v>
+        <v>1729.924</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>484.98099999999999</v>
+        <v>147.16900000000001</v>
       </c>
       <c r="O2">
-        <v>4491.6350000000002</v>
+        <v>1905.231</v>
       </c>
       <c r="P2">
-        <v>3973.085</v>
+        <v>1729.924</v>
       </c>
       <c r="Q2">
-        <v>77.314999999999998</v>
+        <v>46.872</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>1993</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3329.8530000000001</v>
+        <v>2491.9940000000001</v>
       </c>
       <c r="U2">
-        <v>304.40699999999998</v>
+        <v>57.234000000000002</v>
       </c>
       <c r="V2">
-        <v>97.727000000000004</v>
+        <v>92.194999999999993</v>
       </c>
       <c r="W2">
-        <v>-76.009</v>
+        <v>-47.323</v>
       </c>
       <c r="X2">
-        <v>100.17700000000001</v>
+        <v>-0.432</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-28.062000000000001</v>
+        <v>35.014000000000003</v>
       </c>
       <c r="AA2">
-        <v>27.027000000000001</v>
+        <v>54.280999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>30.341000000000001</v>
+        <v>51.598999999999997</v>
       </c>
       <c r="D3">
-        <v>227.226</v>
+        <v>157.679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>140.65199999999999</v>
+        <v>105.081</v>
       </c>
       <c r="G3">
-        <v>618.02599999999995</v>
+        <v>65.344999999999999</v>
       </c>
       <c r="H3">
-        <v>7881.7619999999997</v>
+        <v>4444.777</v>
       </c>
       <c r="I3">
-        <v>32.697000000000003</v>
+        <v>23.417999999999999</v>
       </c>
       <c r="J3">
-        <v>4021.7429999999999</v>
+        <v>1672.144</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-30.119</v>
+        <v>-8.9489999999999998</v>
       </c>
       <c r="N3">
-        <v>397.12099999999998</v>
+        <v>249.45</v>
       </c>
       <c r="O3">
-        <v>4454.2479999999996</v>
+        <v>1951.106</v>
       </c>
       <c r="P3">
-        <v>4037.183</v>
+        <v>1772.144</v>
       </c>
       <c r="Q3">
-        <v>-14.625999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3427.5140000000001</v>
+        <v>2493.6709999999998</v>
       </c>
       <c r="U3">
-        <v>291.8</v>
+        <v>57.651000000000003</v>
       </c>
       <c r="V3">
-        <v>73.215000000000003</v>
+        <v>64.108999999999995</v>
       </c>
       <c r="W3">
-        <v>-76.557000000000002</v>
+        <v>-47.572000000000003</v>
       </c>
       <c r="X3">
-        <v>36.841999999999999</v>
+        <v>3.1150000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1.2250000000000001</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="AA3">
-        <v>30.34</v>
+        <v>51.598999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>43.372</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>235.976</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>149.154</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>501.863</v>
+        <v>22.672999999999998</v>
       </c>
       <c r="H4">
-        <v>7942.7420000000002</v>
+        <v>4491.4440000000004</v>
       </c>
       <c r="I4">
-        <v>33.820999999999998</v>
+        <v>29.747</v>
       </c>
       <c r="J4">
-        <v>3990.7330000000002</v>
+        <v>1788.8409999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>428.70499999999998</v>
+        <v>278.01</v>
       </c>
       <c r="O4">
-        <v>4456.7269999999999</v>
+        <v>2098.027</v>
       </c>
       <c r="P4">
-        <v>4005.3020000000001</v>
+        <v>1888.8409999999999</v>
       </c>
       <c r="Q4">
-        <v>-1.696</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3486.0149999999999</v>
+        <v>2393.4169999999999</v>
       </c>
       <c r="U4">
-        <v>290.10399999999998</v>
+        <v>14.169</v>
       </c>
       <c r="V4">
-        <v>132.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-77.825000000000003</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>33.984999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.2330000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>43.372999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>44.823999999999998</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>246.334</v>
+        <v>163.417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>154.958</v>
+        <v>108.648</v>
       </c>
       <c r="G5">
-        <v>909.66899999999998</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="H5">
-        <v>8488.6569999999992</v>
+        <v>4729.4679999999998</v>
       </c>
       <c r="I5">
-        <v>36.204000000000001</v>
+        <v>36.816000000000003</v>
       </c>
       <c r="J5">
-        <v>3864.386</v>
+        <v>1979.463</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>423.61500000000001</v>
+        <v>270.76900000000001</v>
       </c>
       <c r="O5">
-        <v>4325.5510000000004</v>
+        <v>2280.6840000000002</v>
       </c>
       <c r="P5">
-        <v>3864.386</v>
+        <v>2079.4630000000002</v>
       </c>
       <c r="Q5">
-        <v>400.72699999999998</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4163.1059999999998</v>
+        <v>2448.7840000000001</v>
       </c>
       <c r="U5">
-        <v>690.04899999999998</v>
+        <v>201.393</v>
       </c>
       <c r="V5">
-        <v>89.132999999999996</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-79.045000000000002</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>488.048</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-16.620999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>44.823999999999998</v>
+        <v>86.668000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>323.08499999999998</v>
+        <v>62.212000000000003</v>
       </c>
       <c r="D6">
-        <v>231.67099999999999</v>
+        <v>131.57400000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>147.15600000000001</v>
+        <v>92.222999999999999</v>
       </c>
       <c r="G6">
-        <v>830.779</v>
+        <v>170.29</v>
       </c>
       <c r="H6">
-        <v>8482.39</v>
+        <v>4664.2889999999998</v>
       </c>
       <c r="I6">
-        <v>36.844999999999999</v>
+        <v>43.655999999999999</v>
       </c>
       <c r="J6">
-        <v>3599.1959999999999</v>
+        <v>2055.4639999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>438.27100000000002</v>
+        <v>181.48699999999999</v>
       </c>
       <c r="O6">
-        <v>4073.4349999999999</v>
+        <v>2294.5410000000002</v>
       </c>
       <c r="P6">
-        <v>3684.652</v>
+        <v>2055.4639999999999</v>
       </c>
       <c r="Q6">
-        <v>-71.959000000000003</v>
+        <v>-128.40199999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4408.9549999999999</v>
+        <v>2369.748</v>
       </c>
       <c r="U6">
-        <v>616.85299999999995</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="V6">
-        <v>134.34200000000001</v>
+        <v>79.739000000000004</v>
       </c>
       <c r="W6">
-        <v>-84.804000000000002</v>
+        <v>-50.816000000000003</v>
       </c>
       <c r="X6">
-        <v>-232.642</v>
+        <v>-156.21799999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-16.771000000000001</v>
+        <v>-1.9350000000000001</v>
       </c>
       <c r="AA6">
-        <v>323.08499999999998</v>
+        <v>62.212000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>57.758000000000003</v>
+        <v>40.720999999999997</v>
       </c>
       <c r="D7">
-        <v>246.55</v>
+        <v>148.50200000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>158.77799999999999</v>
+        <v>97.275000000000006</v>
       </c>
       <c r="G7">
-        <v>465.46499999999997</v>
+        <v>55.465000000000003</v>
       </c>
       <c r="H7">
-        <v>8241.0589999999993</v>
+        <v>4639.43</v>
       </c>
       <c r="I7">
-        <v>43.789000000000001</v>
+        <v>45.44</v>
       </c>
       <c r="J7">
-        <v>3355.375</v>
+        <v>2058.9250000000002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,84 +1304,84 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-231.43799999999999</v>
+        <v>-23.844000000000001</v>
       </c>
       <c r="N7">
-        <v>450.24200000000002</v>
+        <v>167.06200000000001</v>
       </c>
       <c r="O7">
-        <v>3843.5920000000001</v>
+        <v>2256.1799999999998</v>
       </c>
       <c r="P7">
-        <v>3454.752</v>
+        <v>2058.9250000000002</v>
       </c>
       <c r="Q7">
-        <v>-368.61099999999999</v>
+        <v>-69.846999999999994</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4397.4669999999996</v>
+        <v>2383.25</v>
       </c>
       <c r="U7">
-        <v>248.24199999999999</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="V7">
-        <v>105.34</v>
+        <v>66.116</v>
       </c>
       <c r="W7">
-        <v>-84.926000000000002</v>
+        <v>-49.006999999999998</v>
       </c>
       <c r="X7">
-        <v>-307.61099999999999</v>
+        <v>-51.530999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-5.6589999999999998</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="AA7">
-        <v>57.758000000000003</v>
+        <v>40.720999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>156.90899999999999</v>
+        <v>37.345999999999997</v>
       </c>
       <c r="D8">
-        <v>246.483</v>
+        <v>146.72900000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>157.70500000000001</v>
+        <v>96.783000000000001</v>
       </c>
       <c r="G8">
-        <v>578.33399999999995</v>
+        <v>67.203999999999994</v>
       </c>
       <c r="H8">
-        <v>8412.0450000000001</v>
+        <v>4871.1970000000001</v>
       </c>
       <c r="I8">
-        <v>43.356999999999999</v>
+        <v>43.767000000000003</v>
       </c>
       <c r="J8">
-        <v>3355.3980000000001</v>
+        <v>2137.4110000000001</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>36.088999999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>427.38900000000001</v>
+        <v>317.536</v>
       </c>
       <c r="O8">
-        <v>3822.489</v>
+        <v>2487.8130000000001</v>
       </c>
       <c r="P8">
-        <v>3464.6080000000002</v>
+        <v>2273.5</v>
       </c>
       <c r="Q8">
-        <v>110.021</v>
+        <v>6.3529999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4589.5559999999996</v>
+        <v>2383.384</v>
       </c>
       <c r="U8">
-        <v>358.26299999999998</v>
+        <v>9.4920000000000009</v>
       </c>
       <c r="V8">
-        <v>117.128</v>
+        <v>86.593999999999994</v>
       </c>
       <c r="W8">
-        <v>-92.396000000000001</v>
+        <v>-53.32</v>
       </c>
       <c r="X8">
-        <v>19.303999999999998</v>
+        <v>139.29599999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>7.8470000000000004</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="AA8">
-        <v>156.91</v>
+        <v>37.344000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>86.844999999999999</v>
+        <v>28.709</v>
       </c>
       <c r="D9">
-        <v>266.87400000000002</v>
+        <v>148.72200000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>173.928</v>
+        <v>92.998000000000005</v>
       </c>
       <c r="G9">
-        <v>863.45399999999995</v>
+        <v>52.533999999999999</v>
       </c>
       <c r="H9">
-        <v>8968.5660000000007</v>
+        <v>4919.8100000000004</v>
       </c>
       <c r="I9">
-        <v>51.194000000000003</v>
+        <v>38.859000000000002</v>
       </c>
       <c r="J9">
-        <v>3804.4679999999998</v>
+        <v>2379.8589999999999</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>36.088999999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>381.76600000000002</v>
+        <v>209.249</v>
       </c>
       <c r="O9">
-        <v>4240.4880000000003</v>
+        <v>2621.7080000000001</v>
       </c>
       <c r="P9">
-        <v>3877.3919999999998</v>
+        <v>2415.9479999999999</v>
       </c>
       <c r="Q9">
-        <v>305.87</v>
+        <v>-6.2110000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4728.0780000000004</v>
+        <v>2298.1019999999999</v>
       </c>
       <c r="U9">
-        <v>664.13300000000004</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="V9">
-        <v>152.70500000000001</v>
+        <v>67.441999999999993</v>
       </c>
       <c r="W9">
-        <v>-93.543999999999997</v>
+        <v>-52.755000000000003</v>
       </c>
       <c r="X9">
-        <v>443.14600000000002</v>
+        <v>29.184000000000001</v>
       </c>
       <c r="Y9">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-10.194000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AA9">
-        <v>86.843999999999994</v>
+        <v>28.710999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>122.357</v>
+        <v>66.841999999999999</v>
       </c>
       <c r="D10">
-        <v>261.63400000000001</v>
+        <v>149.61000000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>174.22499999999999</v>
+        <v>93.394000000000005</v>
       </c>
       <c r="G10">
-        <v>2927.4929999999999</v>
+        <v>55.762</v>
       </c>
       <c r="H10">
-        <v>11160.078</v>
+        <v>4950.835</v>
       </c>
       <c r="I10">
-        <v>52.902999999999999</v>
+        <v>27.242999999999999</v>
       </c>
       <c r="J10">
-        <v>3904.5169999999998</v>
+        <v>2431.498</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>370.69200000000001</v>
+        <v>210.25899999999999</v>
       </c>
       <c r="O10">
-        <v>4312.2579999999998</v>
+        <v>2717.11</v>
       </c>
       <c r="P10">
-        <v>3904.5169999999998</v>
+        <v>2431.498</v>
       </c>
       <c r="Q10">
-        <v>2069.4850000000001</v>
+        <v>9.7270000000000003</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>2178</v>
+        <v>1775</v>
       </c>
       <c r="T10">
-        <v>6847.82</v>
+        <v>2233.7249999999999</v>
       </c>
       <c r="U10">
-        <v>2733.6179999999999</v>
+        <v>12.911</v>
       </c>
       <c r="V10">
-        <v>165.64599999999999</v>
+        <v>87.658000000000001</v>
       </c>
       <c r="W10">
-        <v>-94.706000000000003</v>
+        <v>-52.368000000000002</v>
       </c>
       <c r="X10">
-        <v>2044.4929999999999</v>
+        <v>-48.941000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>14.592000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="AA10">
-        <v>122.357</v>
+        <v>66.841999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>75.427000000000007</v>
+        <v>37.387999999999998</v>
       </c>
       <c r="D11">
-        <v>282.79300000000001</v>
+        <v>149.43199999999999</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>179.06299999999999</v>
+        <v>93.197000000000003</v>
       </c>
       <c r="G11">
-        <v>704.00699999999995</v>
+        <v>89.912999999999997</v>
       </c>
       <c r="H11">
-        <v>15187.364</v>
+        <v>5004.2299999999996</v>
       </c>
       <c r="I11">
-        <v>53.317</v>
+        <v>29.294</v>
       </c>
       <c r="J11">
-        <v>5644.3710000000001</v>
+        <v>2456.3939999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1607.2429999999999</v>
+        <v>-50.884</v>
       </c>
       <c r="N11">
-        <v>816.58100000000002</v>
+        <v>258.36099999999999</v>
       </c>
       <c r="O11">
-        <v>6507.7070000000003</v>
+        <v>2776.2640000000001</v>
       </c>
       <c r="P11">
-        <v>5928.2889999999998</v>
+        <v>2556.3939999999998</v>
       </c>
       <c r="Q11">
-        <v>-2286.1619999999998</v>
+        <v>34.918999999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>8679.6569999999992</v>
+        <v>2227.9659999999999</v>
       </c>
       <c r="U11">
-        <v>447.45600000000002</v>
+        <v>47.853000000000002</v>
       </c>
       <c r="V11">
-        <v>81.388000000000005</v>
+        <v>55.033999999999999</v>
       </c>
       <c r="W11">
-        <v>-110.89100000000001</v>
+        <v>-51.61</v>
       </c>
       <c r="X11">
-        <v>-1717.9690000000001</v>
+        <v>25.056000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-2.9780000000000002</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="AA11">
-        <v>75.427000000000007</v>
+        <v>37.387999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>36.220999999999997</v>
+        <v>76.468000000000004</v>
       </c>
       <c r="D12">
-        <v>377.267</v>
+        <v>148.84399999999999</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>244.78</v>
+        <v>92.557000000000002</v>
       </c>
       <c r="G12">
-        <v>389.54599999999999</v>
+        <v>77.885999999999996</v>
       </c>
       <c r="H12">
-        <v>14972.184999999999</v>
+        <v>4934.7749999999996</v>
       </c>
       <c r="I12">
-        <v>84.983999999999995</v>
+        <v>27.521000000000001</v>
       </c>
       <c r="J12">
-        <v>5843.5959999999995</v>
+        <v>2457.527</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>461.08699999999999</v>
+        <v>303.64299999999997</v>
       </c>
       <c r="O12">
-        <v>6388.9080000000004</v>
+        <v>2794.58</v>
       </c>
       <c r="P12">
-        <v>5853.3190000000004</v>
+        <v>2559.748</v>
       </c>
       <c r="Q12">
-        <v>-336.30900000000003</v>
+        <v>-26.385000000000002</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>8583.277</v>
+        <v>2140.1950000000002</v>
       </c>
       <c r="U12">
-        <v>111.14700000000001</v>
+        <v>21.466999999999999</v>
       </c>
       <c r="V12">
-        <v>185.82300000000001</v>
+        <v>74.647000000000006</v>
       </c>
       <c r="W12">
-        <v>-138.376</v>
+        <v>-49.686</v>
       </c>
       <c r="X12">
-        <v>-287.363</v>
+        <v>-126.321</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.81699999999999995</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="AA12">
-        <v>36.218000000000004</v>
+        <v>76.466999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-10.718999999999999</v>
+        <v>57.386000000000003</v>
       </c>
       <c r="D13">
-        <v>392.44900000000001</v>
+        <v>175.602</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>251.232</v>
+        <v>115.337</v>
       </c>
       <c r="G13">
-        <v>412.31799999999998</v>
+        <v>75.644999999999996</v>
       </c>
       <c r="H13">
-        <v>15145.107</v>
+        <v>4965.8639999999996</v>
       </c>
       <c r="I13">
-        <v>84.027000000000001</v>
+        <v>30.079000000000001</v>
       </c>
       <c r="J13">
-        <v>6108.2370000000001</v>
+        <v>2436.1799999999998</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>462.26499999999999</v>
+        <v>201.26</v>
       </c>
       <c r="O13">
-        <v>6653.5219999999999</v>
+        <v>2683.953</v>
       </c>
       <c r="P13">
-        <v>6112.6319999999996</v>
+        <v>2437.433</v>
       </c>
       <c r="Q13">
-        <v>1.7629999999999999</v>
+        <v>-14.679</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>8491.5849999999991</v>
+        <v>2281.9110000000001</v>
       </c>
       <c r="U13">
-        <v>112.91</v>
+        <v>6.7709999999999999</v>
       </c>
       <c r="V13">
-        <v>202.71199999999999</v>
+        <v>34.859000000000002</v>
       </c>
       <c r="W13">
-        <v>-138.39099999999999</v>
+        <v>-49.457999999999998</v>
       </c>
       <c r="X13">
-        <v>109.712</v>
+        <v>-28.635000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>18.949000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="AA13">
-        <v>-10.715</v>
+        <v>57.387</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>252.21199999999999</v>
+        <v>100.283</v>
       </c>
       <c r="D14">
-        <v>384.98500000000001</v>
+        <v>143.999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>246.40299999999999</v>
+        <v>88.272999999999996</v>
       </c>
       <c r="G14">
-        <v>577.34400000000005</v>
+        <v>62.387999999999998</v>
       </c>
       <c r="H14">
-        <v>15328.143</v>
+        <v>4909.5820000000003</v>
       </c>
       <c r="I14">
-        <v>94.632000000000005</v>
+        <v>26.966999999999999</v>
       </c>
       <c r="J14">
-        <v>6134.3509999999997</v>
+        <v>2299.0819999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>532.15099999999995</v>
+        <v>202.64</v>
       </c>
       <c r="O14">
-        <v>6711.0959999999995</v>
+        <v>2573.4960000000001</v>
       </c>
       <c r="P14">
-        <v>6134.3509999999997</v>
+        <v>2299.0819999999999</v>
       </c>
       <c r="Q14">
-        <v>168.44499999999999</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2900</v>
+        <v>1622</v>
       </c>
       <c r="T14">
-        <v>8617.0470000000005</v>
+        <v>2336.0859999999998</v>
       </c>
       <c r="U14">
-        <v>281.35500000000002</v>
+        <v>7.0579999999999998</v>
       </c>
       <c r="V14">
-        <v>254.392</v>
+        <v>75.137</v>
       </c>
       <c r="W14">
-        <v>-138.392</v>
+        <v>-51.661999999999999</v>
       </c>
       <c r="X14">
-        <v>-99.784000000000006</v>
+        <v>-149.565</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.624</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="AA14">
-        <v>252.21199999999999</v>
+        <v>100.283</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>141.739</v>
+        <v>25.277000000000001</v>
       </c>
       <c r="D15">
-        <v>405.298</v>
+        <v>152.39599999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>261.55599999999998</v>
+        <v>92.893000000000001</v>
       </c>
       <c r="G15">
-        <v>660.65</v>
+        <v>75.805999999999997</v>
       </c>
       <c r="H15">
-        <v>15570.239</v>
+        <v>4943.7349999999997</v>
       </c>
       <c r="I15">
-        <v>94.132999999999996</v>
+        <v>25.646000000000001</v>
       </c>
       <c r="J15">
-        <v>6369.0450000000001</v>
+        <v>2366.17</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-17.577000000000002</v>
       </c>
       <c r="M15">
-        <v>-3.8319999999999999</v>
+        <v>-137.477</v>
       </c>
       <c r="N15">
-        <v>531.62800000000004</v>
+        <v>189.47300000000001</v>
       </c>
       <c r="O15">
-        <v>6947.1660000000002</v>
+        <v>2619.61</v>
       </c>
       <c r="P15">
-        <v>6381.7979999999998</v>
+        <v>2366.17</v>
       </c>
       <c r="Q15">
-        <v>104.649</v>
+        <v>-6.819</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>8623.0730000000003</v>
+        <v>2324.125</v>
       </c>
       <c r="U15">
-        <v>386.19</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="V15">
-        <v>220.31700000000001</v>
+        <v>50.716999999999999</v>
       </c>
       <c r="W15">
-        <v>-138.393</v>
+        <v>-51.831000000000003</v>
       </c>
       <c r="X15">
-        <v>108.696</v>
+        <v>-2.5289999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>15.194000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="AA15">
-        <v>141.739</v>
+        <v>25.277000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>158.08600000000001</v>
+        <v>35.033999999999999</v>
       </c>
       <c r="D16">
-        <v>421.51600000000002</v>
+        <v>144.804</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>276.00099999999998</v>
+        <v>88.936999999999998</v>
       </c>
       <c r="G16">
-        <v>724.26599999999996</v>
+        <v>51.834000000000003</v>
       </c>
       <c r="H16">
-        <v>15657.950999999999</v>
+        <v>5004.9030000000002</v>
       </c>
       <c r="I16">
-        <v>96.021000000000001</v>
+        <v>26.547000000000001</v>
       </c>
       <c r="J16">
-        <v>6245.7439999999997</v>
+        <v>2436.9119999999998</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>525.649</v>
+        <v>206.34200000000001</v>
       </c>
       <c r="O16">
-        <v>6820.335</v>
+        <v>2680.105</v>
       </c>
       <c r="P16">
-        <v>6254.8739999999998</v>
+        <v>2440.136</v>
       </c>
       <c r="Q16">
-        <v>39.737000000000002</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>8837.616</v>
+        <v>2324.7979999999998</v>
       </c>
       <c r="U16">
-        <v>425.74099999999999</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="V16">
-        <v>189.39400000000001</v>
+        <v>85.191999999999993</v>
       </c>
       <c r="W16">
-        <v>-150.21700000000001</v>
+        <v>-52.201999999999998</v>
       </c>
       <c r="X16">
-        <v>-62.505000000000003</v>
+        <v>24.38</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>37.106000000000002</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="AA16">
-        <v>158.08600000000001</v>
+        <v>35.033000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>241.10400000000001</v>
+        <v>45.365000000000002</v>
       </c>
       <c r="D17">
-        <v>561.11699999999996</v>
+        <v>156.214</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>410.50299999999999</v>
+        <v>94.703000000000003</v>
       </c>
       <c r="G17">
-        <v>746.20600000000002</v>
+        <v>89.003</v>
       </c>
       <c r="H17">
-        <v>15881.178</v>
+        <v>5099.9620000000004</v>
       </c>
       <c r="I17">
-        <v>98.094999999999999</v>
+        <v>26.776</v>
       </c>
       <c r="J17">
-        <v>6237.1270000000004</v>
+        <v>2534.7069999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>536.74800000000005</v>
+        <v>201.26</v>
       </c>
       <c r="O17">
-        <v>6823.3</v>
+        <v>2772.3</v>
       </c>
       <c r="P17">
-        <v>6241.768</v>
+        <v>2534.7069999999999</v>
       </c>
       <c r="Q17">
-        <v>14.287000000000001</v>
+        <v>31.076000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>9057.8780000000006</v>
+        <v>2327.6619999999998</v>
       </c>
       <c r="U17">
-        <v>440.02800000000002</v>
+        <v>33.576999999999998</v>
       </c>
       <c r="V17">
-        <v>231.71799999999999</v>
+        <v>59.715000000000003</v>
       </c>
       <c r="W17">
-        <v>-152.02199999999999</v>
+        <v>-52.43</v>
       </c>
       <c r="X17">
-        <v>-32.451999999999998</v>
+        <v>41.500999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>139.90899999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="AA17">
-        <v>241.1</v>
+        <v>45.366</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>142.63800000000001</v>
+        <v>114.069</v>
       </c>
       <c r="D18">
-        <v>370.43799999999999</v>
+        <v>161.53</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>227.22900000000001</v>
+        <v>99.328000000000003</v>
       </c>
       <c r="G18">
-        <v>839.49400000000003</v>
+        <v>79.700999999999993</v>
       </c>
       <c r="H18">
-        <v>16140.578</v>
+        <v>5081.2489999999998</v>
       </c>
       <c r="I18">
-        <v>101.916</v>
+        <v>23.004999999999999</v>
       </c>
       <c r="J18">
-        <v>6489.7070000000003</v>
+        <v>2351.3539999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>542.875</v>
+        <v>286.464</v>
       </c>
       <c r="O18">
-        <v>7081.4080000000004</v>
+        <v>2674.433</v>
       </c>
       <c r="P18">
-        <v>6489.7070000000003</v>
+        <v>2451.3539999999998</v>
       </c>
       <c r="Q18">
-        <v>69.432000000000002</v>
+        <v>-31.949000000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3006</v>
+        <v>1702</v>
       </c>
       <c r="T18">
-        <v>9059.17</v>
+        <v>2406.8159999999998</v>
       </c>
       <c r="U18">
-        <v>509.46</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="V18">
-        <v>245.21199999999999</v>
+        <v>79.992999999999995</v>
       </c>
       <c r="W18">
-        <v>-153.011</v>
+        <v>-52.631999999999998</v>
       </c>
       <c r="X18">
-        <v>144.48500000000001</v>
+        <v>-92.822999999999993</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6.0739999999999998</v>
+        <v>-5.1779999999999999</v>
       </c>
       <c r="AA18">
-        <v>142.63800000000001</v>
+        <v>114.069</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>208.14400000000001</v>
+        <v>69.61</v>
       </c>
       <c r="D19">
-        <v>476.93299999999999</v>
+        <v>161.63999999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>315.79199999999997</v>
+        <v>100.78400000000001</v>
       </c>
       <c r="G19">
-        <v>554.63199999999995</v>
+        <v>70.156000000000006</v>
       </c>
       <c r="H19">
-        <v>16263.748</v>
+        <v>5065.2690000000002</v>
       </c>
       <c r="I19">
-        <v>94.131</v>
+        <v>21.399000000000001</v>
       </c>
       <c r="J19">
-        <v>5962.5230000000001</v>
+        <v>2401.6089999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-4.2089999999999996</v>
+        <v>-87.835999999999999</v>
       </c>
       <c r="N19">
-        <v>1142.5319999999999</v>
+        <v>194.16900000000001</v>
       </c>
       <c r="O19">
-        <v>7155.7280000000001</v>
+        <v>2631.9369999999999</v>
       </c>
       <c r="P19">
-        <v>6562.3310000000001</v>
+        <v>2407.3960000000002</v>
       </c>
       <c r="Q19">
-        <v>-313.34800000000001</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>9108.02</v>
+        <v>2433.3319999999999</v>
       </c>
       <c r="U19">
-        <v>194.928</v>
+        <v>3.4969999999999999</v>
       </c>
       <c r="V19">
-        <v>236.38</v>
+        <v>67.826999999999998</v>
       </c>
       <c r="W19">
-        <v>-153.095</v>
+        <v>-52.954000000000001</v>
       </c>
       <c r="X19">
-        <v>-107.529</v>
+        <v>-93.206999999999994</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>40.493000000000002</v>
+        <v>-6.5679999999999996</v>
       </c>
       <c r="AA19">
-        <v>208.14400000000001</v>
+        <v>69.61</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>172.32499999999999</v>
+        <v>56.911000000000001</v>
       </c>
       <c r="D20">
-        <v>471.26499999999999</v>
+        <v>172.08199999999999</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>312.61</v>
+        <v>110.13</v>
       </c>
       <c r="G20">
-        <v>406.62700000000001</v>
+        <v>71.584999999999994</v>
       </c>
       <c r="H20">
-        <v>16320.476000000001</v>
+        <v>5114.7060000000001</v>
       </c>
       <c r="I20">
-        <v>109.158</v>
+        <v>20.311</v>
       </c>
       <c r="J20">
-        <v>6374.4889999999996</v>
+        <v>2434.7350000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>671.51099999999997</v>
+        <v>189.661</v>
       </c>
       <c r="O20">
-        <v>7099.4030000000002</v>
+        <v>2662.0419999999999</v>
       </c>
       <c r="P20">
-        <v>6487.13</v>
+        <v>2439.2489999999998</v>
       </c>
       <c r="Q20">
-        <v>-130.98599999999999</v>
+        <v>-0.59399999999999997</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>9221.0730000000003</v>
+        <v>2452.6640000000002</v>
       </c>
       <c r="U20">
-        <v>65.126000000000005</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="V20">
-        <v>255.52199999999999</v>
+        <v>76.941999999999993</v>
       </c>
       <c r="W20">
-        <v>-165.14500000000001</v>
+        <v>-53.9</v>
       </c>
       <c r="X20">
-        <v>-134.358</v>
+        <v>-13.510999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-4.4379999999999997</v>
+        <v>-6.5060000000000002</v>
       </c>
       <c r="AA20">
-        <v>172.32400000000001</v>
+        <v>56.911000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>206.14099999999999</v>
+        <v>99.128</v>
       </c>
       <c r="D21">
-        <v>495.91399999999999</v>
+        <v>171.02500000000001</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>326.452</v>
+        <v>103.846</v>
       </c>
       <c r="G21">
-        <v>652.66399999999999</v>
+        <v>121.044</v>
       </c>
       <c r="H21">
-        <v>16781.978999999999</v>
+        <v>5133.1009999999997</v>
       </c>
       <c r="I21">
-        <v>103.042</v>
+        <v>18.308</v>
       </c>
       <c r="J21">
-        <v>6198.6890000000003</v>
+        <v>2396.598</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>689.27700000000004</v>
+        <v>186.946</v>
       </c>
       <c r="O21">
-        <v>6942.0140000000001</v>
+        <v>2622.761</v>
       </c>
       <c r="P21">
-        <v>6306.7269999999999</v>
+        <v>2399.3609999999999</v>
       </c>
       <c r="Q21">
-        <v>253.43100000000001</v>
+        <v>-0.52300000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>9839.9650000000001</v>
+        <v>2510.34</v>
       </c>
       <c r="U21">
-        <v>318.55700000000002</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="V21">
-        <v>302.37</v>
+        <v>67.628</v>
       </c>
       <c r="W21">
-        <v>-166.011</v>
+        <v>-54.180999999999997</v>
       </c>
       <c r="X21">
-        <v>243.227</v>
+        <v>-84.442999999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>10.936999999999999</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="AA21">
-        <v>206.142</v>
+        <v>99.128</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>155.428</v>
+        <v>84.819000000000003</v>
       </c>
       <c r="D22">
-        <v>451.33699999999999</v>
+        <v>173.131</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>298.34800000000001</v>
+        <v>96.212000000000003</v>
       </c>
       <c r="G22">
-        <v>734.5</v>
+        <v>101.59699999999999</v>
       </c>
       <c r="H22">
-        <v>16931.305</v>
+        <v>5198.598</v>
       </c>
       <c r="I22">
-        <v>98.802000000000007</v>
+        <v>24.69</v>
       </c>
       <c r="J22">
-        <v>6456.9480000000003</v>
+        <v>2334.0169999999998</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>570.702</v>
+        <v>262.94900000000001</v>
       </c>
       <c r="O22">
-        <v>7080.7820000000002</v>
+        <v>2670.8620000000001</v>
       </c>
       <c r="P22">
-        <v>6456.9480000000003</v>
+        <v>2334.0169999999998</v>
       </c>
       <c r="Q22">
-        <v>81.95</v>
+        <v>3.3660000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2981</v>
+        <v>1647</v>
       </c>
       <c r="T22">
-        <v>9850.5229999999992</v>
+        <v>2527.7359999999999</v>
       </c>
       <c r="U22">
-        <v>400.50700000000001</v>
+        <v>5.7149999999999999</v>
       </c>
       <c r="V22">
-        <v>262.48200000000003</v>
+        <v>93.850999999999999</v>
       </c>
       <c r="W22">
-        <v>-170.99700000000001</v>
+        <v>-54.356000000000002</v>
       </c>
       <c r="X22">
-        <v>32.47</v>
+        <v>-91.132000000000005</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>55.606999999999999</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="AA22">
-        <v>155.428</v>
+        <v>84.819000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>237.93100000000001</v>
+        <v>111.114</v>
       </c>
       <c r="D23">
-        <v>536.46699999999998</v>
+        <v>173.85599999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>366.31200000000001</v>
+        <v>105.967</v>
       </c>
       <c r="G23">
-        <v>507.41</v>
+        <v>128.74299999999999</v>
       </c>
       <c r="H23">
-        <v>17043.39</v>
+        <v>5169.4520000000002</v>
       </c>
       <c r="I23">
-        <v>99.644000000000005</v>
+        <v>33.034999999999997</v>
       </c>
       <c r="J23">
-        <v>6502.58</v>
+        <v>2293.9430000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-19.681999999999999</v>
+        <v>-72.346000000000004</v>
       </c>
       <c r="N23">
-        <v>628.38099999999997</v>
+        <v>207.27600000000001</v>
       </c>
       <c r="O23">
-        <v>7186.7309999999998</v>
+        <v>2539.4059999999999</v>
       </c>
       <c r="P23">
-        <v>6502.58</v>
+        <v>2299.384</v>
       </c>
       <c r="Q23">
-        <v>-302.96600000000001</v>
+        <v>49.762999999999998</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9856.6589999999997</v>
+        <v>2630.0459999999998</v>
       </c>
       <c r="U23">
-        <v>97.540999999999997</v>
+        <v>55.901000000000003</v>
       </c>
       <c r="V23">
-        <v>277.78199999999998</v>
+        <v>73.912000000000006</v>
       </c>
       <c r="W23">
-        <v>-171.15100000000001</v>
+        <v>-54.454000000000001</v>
       </c>
       <c r="X23">
-        <v>-196.02099999999999</v>
+        <v>-109.282</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>57.738999999999997</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AA23">
-        <v>237.93100000000001</v>
+        <v>111.114</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>197.446</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>529.45799999999997</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>358.012</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>530.73199999999997</v>
+        <v>92.119</v>
       </c>
       <c r="H24">
-        <v>17395.066999999999</v>
+        <v>5272.44</v>
       </c>
       <c r="I24">
-        <v>100.876</v>
+        <v>44.473999999999997</v>
       </c>
       <c r="J24">
-        <v>6833.991</v>
+        <v>2335.5349999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>636.495</v>
+        <v>252.41200000000001</v>
       </c>
       <c r="O24">
-        <v>7528.5789999999997</v>
+        <v>2625.9090000000001</v>
       </c>
       <c r="P24">
-        <v>6833.991</v>
+        <v>2340.0509999999999</v>
       </c>
       <c r="Q24">
-        <v>84.765000000000001</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>9866.4879999999994</v>
+        <v>2646.5309999999999</v>
       </c>
       <c r="U24">
-        <v>182.30600000000001</v>
+        <v>12.78</v>
       </c>
       <c r="V24">
-        <v>275.39600000000002</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-185.084</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>137.13300000000001</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-120.517</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>197.44399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>356.39</v>
+        <v>42.113</v>
       </c>
       <c r="D25">
-        <v>515.86900000000003</v>
+        <v>184.23500000000001</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>334.93799999999999</v>
+        <v>112.593</v>
       </c>
       <c r="G25">
-        <v>494.17700000000002</v>
+        <v>295.98399999999998</v>
       </c>
       <c r="H25">
-        <v>17588.656999999999</v>
+        <v>5591.1970000000001</v>
       </c>
       <c r="I25">
-        <v>100.113</v>
+        <v>53.761000000000003</v>
       </c>
       <c r="J25">
-        <v>6811.4340000000002</v>
+        <v>2637.3420000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>673.154</v>
+        <v>232.16200000000001</v>
       </c>
       <c r="O25">
-        <v>7542.0829999999996</v>
+        <v>2950.33</v>
       </c>
       <c r="P25">
-        <v>6815.97</v>
+        <v>2639.998</v>
       </c>
       <c r="Q25">
-        <v>-116.407</v>
+        <v>174.505</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>10046.574000000001</v>
+        <v>2640.8670000000002</v>
       </c>
       <c r="U25">
-        <v>65.899000000000001</v>
+        <v>186.88200000000001</v>
       </c>
       <c r="V25">
-        <v>307.54899999999998</v>
+        <v>64.584000000000003</v>
       </c>
       <c r="W25">
-        <v>-185.25</v>
+        <v>-60.143999999999998</v>
       </c>
       <c r="X25">
-        <v>-269.85599999999999</v>
+        <v>275.97500000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>155.077</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="AA25">
-        <v>356.392</v>
+        <v>42.113</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>242.23500000000001</v>
+        <v>46.313000000000002</v>
       </c>
       <c r="D26">
-        <v>470.267</v>
+        <v>196.21899999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>307.327</v>
+        <v>121.602</v>
       </c>
       <c r="G26">
-        <v>618.98199999999997</v>
+        <v>203.48699999999999</v>
       </c>
       <c r="H26">
-        <v>17867.271000000001</v>
+        <v>5848.5069999999996</v>
       </c>
       <c r="I26">
-        <v>100.998</v>
+        <v>59.231999999999999</v>
       </c>
       <c r="J26">
-        <v>7030.88</v>
+        <v>2801.4279999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>600.18600000000004</v>
+        <v>348.86</v>
       </c>
       <c r="O26">
-        <v>7688.0889999999999</v>
+        <v>3257.0419999999999</v>
       </c>
       <c r="P26">
-        <v>7030.88</v>
+        <v>2801.4279999999999</v>
       </c>
       <c r="Q26">
-        <v>159.25700000000001</v>
+        <v>-178.61</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3071</v>
+        <v>1767</v>
       </c>
       <c r="T26">
-        <v>10179.182000000001</v>
+        <v>2591.4650000000001</v>
       </c>
       <c r="U26">
-        <v>214.994</v>
+        <v>8.2840000000000007</v>
       </c>
       <c r="V26">
-        <v>299.54500000000002</v>
+        <v>102.07</v>
       </c>
       <c r="W26">
-        <v>-185.26400000000001</v>
+        <v>-60.271999999999998</v>
       </c>
       <c r="X26">
-        <v>25.472999999999999</v>
+        <v>12.614000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>9.5489999999999995</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="AA26">
-        <v>242.23500000000001</v>
+        <v>46.313000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>235.875</v>
+        <v>46.52</v>
       </c>
       <c r="D27">
-        <v>538.99800000000005</v>
+        <v>184.11199999999999</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>362.68400000000003</v>
+        <v>113.908</v>
       </c>
       <c r="G27">
-        <v>655.98099999999999</v>
+        <v>535.18899999999996</v>
       </c>
       <c r="H27">
-        <v>17978.420999999998</v>
+        <v>6424.049</v>
       </c>
       <c r="I27">
-        <v>96.671999999999997</v>
+        <v>58.844000000000001</v>
       </c>
       <c r="J27">
-        <v>7005.7290000000003</v>
+        <v>2691.7049999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-21.905000000000001</v>
+        <v>-17.785</v>
       </c>
       <c r="N27">
-        <v>640.10900000000004</v>
+        <v>466.57600000000002</v>
       </c>
       <c r="O27">
-        <v>7703.0209999999997</v>
+        <v>3240.8919999999998</v>
       </c>
       <c r="P27">
-        <v>7005.7290000000003</v>
+        <v>2807.9070000000002</v>
       </c>
       <c r="Q27">
-        <v>38.743000000000002</v>
+        <v>347.86799999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>10275.4</v>
+        <v>3183.1570000000002</v>
       </c>
       <c r="U27">
-        <v>121.705</v>
+        <v>356.435</v>
       </c>
       <c r="V27">
-        <v>299.89499999999998</v>
+        <v>99.188000000000002</v>
       </c>
       <c r="W27">
-        <v>-185.19200000000001</v>
+        <v>-60.341999999999999</v>
       </c>
       <c r="X27">
-        <v>-152.27199999999999</v>
+        <v>533.94600000000003</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6.1779999999999999</v>
+        <v>1.998</v>
       </c>
       <c r="AA27">
-        <v>235.875</v>
+        <v>46.518999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>165.22499999999999</v>
+        <v>51.051000000000002</v>
       </c>
       <c r="D28">
-        <v>522.96</v>
+        <v>185.184</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>342.13799999999998</v>
+        <v>114.23699999999999</v>
       </c>
       <c r="G28">
-        <v>555.40599999999995</v>
+        <v>409</v>
       </c>
       <c r="H28">
-        <v>17943.744999999999</v>
+        <v>6542.81</v>
       </c>
       <c r="I28">
-        <v>94.534999999999997</v>
+        <v>62.418999999999997</v>
       </c>
       <c r="J28">
-        <v>6991.759</v>
+        <v>2909.83</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>601.55600000000004</v>
+        <v>365.13299999999998</v>
       </c>
       <c r="O28">
-        <v>7652.491</v>
+        <v>3368.1350000000002</v>
       </c>
       <c r="P28">
-        <v>6991.759</v>
+        <v>2914.6759999999999</v>
       </c>
       <c r="Q28">
-        <v>-75.566999999999993</v>
+        <v>-218.441</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>10291.254000000001</v>
+        <v>3174.6750000000002</v>
       </c>
       <c r="U28">
-        <v>53.476999999999997</v>
+        <v>137.77000000000001</v>
       </c>
       <c r="V28">
-        <v>275.76100000000002</v>
+        <v>102.078</v>
       </c>
       <c r="W28">
-        <v>-195.53100000000001</v>
+        <v>-69.784999999999997</v>
       </c>
       <c r="X28">
-        <v>-206.48400000000001</v>
+        <v>-53.334000000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>5.5739999999999998</v>
+        <v>1.155</v>
       </c>
       <c r="AA28">
-        <v>165.22499999999999</v>
+        <v>51.052</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>238.24799999999999</v>
+        <v>128.76900000000001</v>
       </c>
       <c r="D29">
-        <v>571.65499999999997</v>
+        <v>196.47499999999999</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>383.57799999999997</v>
+        <v>120.288</v>
       </c>
       <c r="G29">
-        <v>486.22500000000002</v>
+        <v>291.92500000000001</v>
       </c>
       <c r="H29">
-        <v>18177.837</v>
+        <v>6632.6989999999996</v>
       </c>
       <c r="I29">
-        <v>84.337999999999994</v>
+        <v>68.804000000000002</v>
       </c>
       <c r="J29">
-        <v>7128.03</v>
+        <v>2692.11</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>648.48699999999997</v>
+        <v>729.98900000000003</v>
       </c>
       <c r="O29">
-        <v>7835.2849999999999</v>
+        <v>3509.2350000000001</v>
       </c>
       <c r="P29">
-        <v>7128.03</v>
+        <v>3054.4960000000001</v>
       </c>
       <c r="Q29">
-        <v>-76.042000000000002</v>
+        <v>-98.668999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>10342.552</v>
+        <v>3123.4639999999999</v>
       </c>
       <c r="U29">
-        <v>36.042000000000002</v>
+        <v>39.042000000000002</v>
       </c>
       <c r="V29">
-        <v>358.12200000000001</v>
+        <v>92.376999999999995</v>
       </c>
       <c r="W29">
-        <v>-195.96199999999999</v>
+        <v>-69.855999999999995</v>
       </c>
       <c r="X29">
-        <v>-63.136000000000003</v>
+        <v>-55.872999999999998</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>62.993000000000002</v>
+        <v>-8.0229999999999997</v>
       </c>
       <c r="AA29">
-        <v>238.24799999999999</v>
+        <v>128.76900000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>237.57300000000001</v>
+        <v>131.82</v>
       </c>
       <c r="D30">
-        <v>555.649</v>
+        <v>260.06099999999998</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>375.17500000000001</v>
+        <v>175.149</v>
       </c>
       <c r="G30">
-        <v>442.61399999999998</v>
+        <v>263.65499999999997</v>
       </c>
       <c r="H30">
-        <v>18414.821</v>
+        <v>6736.4840000000004</v>
       </c>
       <c r="I30">
-        <v>85.376999999999995</v>
+        <v>91.275000000000006</v>
       </c>
       <c r="J30">
-        <v>7329.47</v>
+        <v>2643.5610000000001</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>514.5</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>632.77599999999995</v>
+        <v>945.51300000000003</v>
       </c>
       <c r="O30">
-        <v>8020.7190000000001</v>
+        <v>3686.6779999999999</v>
       </c>
       <c r="P30">
-        <v>7329.47</v>
+        <v>3158.0610000000001</v>
       </c>
       <c r="Q30">
-        <v>-15.205</v>
+        <v>-18.771000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>3112</v>
+        <v>1898</v>
       </c>
       <c r="T30">
-        <v>10394.102000000001</v>
+        <v>3049.806</v>
       </c>
       <c r="U30">
-        <v>67.087999999999994</v>
+        <v>20.271000000000001</v>
       </c>
       <c r="V30">
-        <v>322.47899999999998</v>
+        <v>161.23099999999999</v>
       </c>
       <c r="W30">
-        <v>-195.97200000000001</v>
+        <v>-68.983000000000004</v>
       </c>
       <c r="X30">
-        <v>2.9449999999999998</v>
+        <v>-58.378999999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-9.9329999999999998</v>
+        <v>-10.257</v>
       </c>
       <c r="AA30">
-        <v>237.57300000000001</v>
+        <v>131.82</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>141.643</v>
+        <v>48.45</v>
       </c>
       <c r="D31">
-        <v>562.53200000000004</v>
+        <v>204.20699999999999</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>370.69099999999997</v>
+        <v>125.95699999999999</v>
       </c>
       <c r="G31">
-        <v>516.21100000000001</v>
+        <v>480.55799999999999</v>
       </c>
       <c r="H31">
-        <v>18646.447</v>
+        <v>7120.1030000000001</v>
       </c>
       <c r="I31">
-        <v>83.209000000000003</v>
+        <v>88.414000000000001</v>
       </c>
       <c r="J31">
-        <v>7599.4549999999999</v>
+        <v>2868.8429999999998</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>798.5</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-28.850999999999999</v>
+        <v>-52.039000000000001</v>
       </c>
       <c r="N31">
-        <v>647.15599999999995</v>
+        <v>1186.377</v>
       </c>
       <c r="O31">
-        <v>8305.3709999999992</v>
+        <v>4128.76</v>
       </c>
       <c r="P31">
-        <v>7599.4549999999999</v>
+        <v>3678.5659999999998</v>
       </c>
       <c r="Q31">
-        <v>69.501000000000005</v>
+        <v>249.154</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>10341.075999999999</v>
+        <v>2991.3429999999998</v>
       </c>
       <c r="U31">
-        <v>137.244</v>
+        <v>270.32</v>
       </c>
       <c r="V31">
-        <v>315.91300000000001</v>
+        <v>19.577000000000002</v>
       </c>
       <c r="W31">
-        <v>-195.999</v>
+        <v>-67.760000000000005</v>
       </c>
       <c r="X31">
-        <v>72.867999999999995</v>
+        <v>386.52199999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-2.355</v>
+        <v>-2.7919999999999998</v>
       </c>
       <c r="AA31">
-        <v>141.643</v>
+        <v>48.45</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>254.66200000000001</v>
+        <v>127.333</v>
       </c>
       <c r="D32">
-        <v>570.02800000000002</v>
+        <v>208.922</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>378.15100000000001</v>
+        <v>132.18700000000001</v>
       </c>
       <c r="G32">
-        <v>583.55999999999995</v>
+        <v>186.67699999999999</v>
       </c>
       <c r="H32">
-        <v>18671.008000000002</v>
+        <v>6921.7759999999998</v>
       </c>
       <c r="I32">
-        <v>92.798000000000002</v>
+        <v>75.38</v>
       </c>
       <c r="J32">
-        <v>7571.2780000000002</v>
+        <v>3415.3780000000002</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>634.03</v>
+        <v>384.04599999999999</v>
       </c>
       <c r="O32">
-        <v>8266.8130000000001</v>
+        <v>3864.9520000000002</v>
       </c>
       <c r="P32">
-        <v>7571.2780000000002</v>
+        <v>3423.9250000000002</v>
       </c>
       <c r="Q32">
-        <v>78.489999999999995</v>
+        <v>-262.09100000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10404.195</v>
+        <v>3056.8240000000001</v>
       </c>
       <c r="U32">
-        <v>101.565</v>
+        <v>7.3470000000000004</v>
       </c>
       <c r="V32">
-        <v>309.38400000000001</v>
+        <v>119.548</v>
       </c>
       <c r="W32">
-        <v>-203.071</v>
+        <v>-70.86</v>
       </c>
       <c r="X32">
-        <v>-233.49299999999999</v>
+        <v>-335.83300000000003</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-2.734</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="AA32">
-        <v>254.66200000000001</v>
+        <v>127.333</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>192.48599999999999</v>
+        <v>233.58099999999999</v>
       </c>
       <c r="D33">
-        <v>577.37699999999995</v>
+        <v>215.88499999999999</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>383.387</v>
+        <v>133.09299999999999</v>
       </c>
       <c r="G33">
-        <v>498.47300000000001</v>
+        <v>383.02800000000002</v>
       </c>
       <c r="H33">
-        <v>18662.118999999999</v>
+        <v>7091.1970000000001</v>
       </c>
       <c r="I33">
-        <v>92.322999999999993</v>
+        <v>61.756</v>
       </c>
       <c r="J33">
-        <v>7533.2280000000001</v>
+        <v>3402.2550000000001</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>664.35699999999997</v>
+        <v>393.56</v>
       </c>
       <c r="O33">
-        <v>8258.6440000000002</v>
+        <v>3863.8690000000001</v>
       </c>
       <c r="P33">
-        <v>7533.2280000000001</v>
+        <v>3427.2550000000001</v>
       </c>
       <c r="Q33">
-        <v>-68.305999999999997</v>
+        <v>71.685000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>10403.475</v>
+        <v>3227.328</v>
       </c>
       <c r="U33">
-        <v>55.887</v>
+        <v>79.019000000000005</v>
       </c>
       <c r="V33">
-        <v>355.26</v>
+        <v>127.857</v>
       </c>
       <c r="W33">
-        <v>-203.08199999999999</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-244.791</v>
+        <v>-67.358000000000004</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-0.877</v>
+        <v>7.2469999999999999</v>
       </c>
       <c r="AA33">
-        <v>192.48599999999999</v>
+        <v>233.58099999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>385.73399999999998</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="D34">
-        <v>579.21100000000001</v>
+        <v>189.77600000000001</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>390.71699999999998</v>
+        <v>114.182</v>
       </c>
       <c r="G34">
-        <v>371.005</v>
+        <v>351.16199999999998</v>
       </c>
       <c r="H34">
-        <v>18380.2</v>
+        <v>7174.3530000000001</v>
       </c>
       <c r="I34">
-        <v>96.983000000000004</v>
+        <v>64.363</v>
       </c>
       <c r="J34">
-        <v>7040.2629999999999</v>
+        <v>3530.7220000000002</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>645.67200000000003</v>
+        <v>647.50300000000004</v>
       </c>
       <c r="O34">
-        <v>7744.35</v>
+        <v>4248.0039999999999</v>
       </c>
       <c r="P34">
-        <v>7040.2629999999999</v>
+        <v>3654.7220000000002</v>
       </c>
       <c r="Q34">
-        <v>-63.726999999999997</v>
+        <v>-14.084</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3087</v>
+        <v>1830</v>
       </c>
       <c r="T34">
-        <v>10635.85</v>
+        <v>2926.3490000000002</v>
       </c>
       <c r="U34">
-        <v>91.659000000000006</v>
+        <v>64.935000000000002</v>
       </c>
       <c r="V34">
-        <v>320.55399999999997</v>
+        <v>119.102</v>
       </c>
       <c r="W34">
-        <v>-203.08699999999999</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-283.08600000000001</v>
+        <v>-58.442</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>30.465</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="AA34">
-        <v>385.73399999999998</v>
+        <v>2.1230000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>170.36600000000001</v>
+        <v>47.424999999999997</v>
       </c>
       <c r="D35">
-        <v>565.65599999999995</v>
+        <v>213.19</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>380.45800000000003</v>
+        <v>130.61699999999999</v>
       </c>
       <c r="G35">
-        <v>359.327</v>
+        <v>354.71499999999997</v>
       </c>
       <c r="H35">
-        <v>18639.983</v>
+        <v>7273.442</v>
       </c>
       <c r="I35">
-        <v>102.42700000000001</v>
+        <v>57.067999999999998</v>
       </c>
       <c r="J35">
-        <v>7040.067</v>
+        <v>3384.2919999999999</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-1.6679999999999999</v>
+        <v>-102.68</v>
       </c>
       <c r="N35">
-        <v>661.62400000000002</v>
+        <v>797.38800000000003</v>
       </c>
       <c r="O35">
-        <v>7902.5879999999997</v>
+        <v>4225.7979999999998</v>
       </c>
       <c r="P35">
-        <v>7180.5029999999997</v>
+        <v>3801.3110000000001</v>
       </c>
       <c r="Q35">
-        <v>-22.657</v>
+        <v>24.629000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>10737.395</v>
+        <v>3047.6439999999998</v>
       </c>
       <c r="U35">
-        <v>62.999000000000002</v>
+        <v>90.334999999999994</v>
       </c>
       <c r="V35">
-        <v>361.786</v>
+        <v>90.820999999999998</v>
       </c>
       <c r="W35">
-        <v>-203.499</v>
+        <v>-68.840999999999994</v>
       </c>
       <c r="X35">
-        <v>-71.257000000000005</v>
+        <v>63.488999999999997</v>
       </c>
       <c r="Y35">
-        <v>140.43600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-0.72399999999999998</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="AA35">
-        <v>170.36600000000001</v>
+        <v>47.424999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>168.28100000000001</v>
+        <v>17.673999999999999</v>
       </c>
       <c r="D36">
-        <v>577.99300000000005</v>
+        <v>212.751</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>381.11599999999999</v>
+        <v>129.08600000000001</v>
       </c>
       <c r="G36">
-        <v>518.42700000000002</v>
+        <v>550.47400000000005</v>
       </c>
       <c r="H36">
-        <v>18932.575000000001</v>
+        <v>7574.3180000000002</v>
       </c>
       <c r="I36">
-        <v>104.545</v>
+        <v>55.262999999999998</v>
       </c>
       <c r="J36">
-        <v>7352.2169999999996</v>
+        <v>4112.3630000000003</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>625.14400000000001</v>
+        <v>425.08800000000002</v>
       </c>
       <c r="O36">
-        <v>8178.7070000000003</v>
+        <v>4576.8869999999997</v>
       </c>
       <c r="P36">
-        <v>7490.38</v>
+        <v>4149.8879999999999</v>
       </c>
       <c r="Q36">
-        <v>134.83699999999999</v>
+        <v>125.453</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>10753.868</v>
+        <v>2997.431</v>
       </c>
       <c r="U36">
-        <v>243.57599999999999</v>
+        <v>215.78800000000001</v>
       </c>
       <c r="V36">
-        <v>275.94600000000003</v>
+        <v>98.906999999999996</v>
       </c>
       <c r="W36">
-        <v>-211.79599999999999</v>
+        <v>-71.087000000000003</v>
       </c>
       <c r="X36">
-        <v>135.72900000000001</v>
+        <v>172.922</v>
       </c>
       <c r="Y36">
-        <v>138.16300000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-0.49399999999999999</v>
+        <v>-3.7309999999999999</v>
       </c>
       <c r="AA36">
-        <v>168.28100000000001</v>
+        <v>17.673999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>279.67700000000002</v>
+        <v>58.154000000000003</v>
       </c>
       <c r="D37">
-        <v>589.78800000000001</v>
+        <v>215.233</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>391.79399999999998</v>
+        <v>129.16800000000001</v>
       </c>
       <c r="G37">
-        <v>537.23599999999999</v>
+        <v>882.976</v>
       </c>
       <c r="H37">
-        <v>19060.467000000001</v>
+        <v>7946.42</v>
       </c>
       <c r="I37">
-        <v>93.593000000000004</v>
+        <v>49.621000000000002</v>
       </c>
       <c r="J37">
-        <v>7361.2790000000005</v>
+        <v>4397.05</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>682.09400000000005</v>
+        <v>425.12400000000002</v>
       </c>
       <c r="O37">
-        <v>8242.0390000000007</v>
+        <v>4859.3109999999997</v>
       </c>
       <c r="P37">
-        <v>7497.9840000000004</v>
+        <v>4432.8509999999997</v>
       </c>
       <c r="Q37">
-        <v>4.71</v>
+        <v>338.57499999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10818.428</v>
+        <v>3087.1089999999999</v>
       </c>
       <c r="U37">
-        <v>246.42500000000001</v>
+        <v>554.33500000000004</v>
       </c>
       <c r="V37">
-        <v>377.19</v>
+        <v>83.25</v>
       </c>
       <c r="W37">
-        <v>-212.172</v>
+        <v>-71.340999999999994</v>
       </c>
       <c r="X37">
-        <v>-205.3</v>
+        <v>308.94600000000003</v>
       </c>
       <c r="Y37">
-        <v>136.70500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0.65900000000000003</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="AA37">
-        <v>279.67700000000002</v>
+        <v>58.154000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>167.65</v>
+        <v>32.393999999999998</v>
       </c>
       <c r="D38">
-        <v>594.053</v>
+        <v>211.59399999999999</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>405.04899999999998</v>
+        <v>121.021</v>
       </c>
       <c r="G38">
-        <v>315.565</v>
+        <v>403.608</v>
       </c>
       <c r="H38">
-        <v>19121.050999999999</v>
+        <v>7457.6049999999996</v>
       </c>
       <c r="I38">
-        <v>92.135000000000005</v>
+        <v>49.622999999999998</v>
       </c>
       <c r="J38">
-        <v>7296.29</v>
+        <v>3974.8719999999998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>629.09100000000001</v>
+        <v>390.42899999999997</v>
       </c>
       <c r="O38">
-        <v>8127.6009999999997</v>
+        <v>4401.6809999999996</v>
       </c>
       <c r="P38">
-        <v>7436.7579999999998</v>
+        <v>3974.8719999999998</v>
       </c>
       <c r="Q38">
-        <v>-207.14</v>
+        <v>-447.90100000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>3122</v>
+        <v>1877</v>
       </c>
       <c r="T38">
-        <v>10993.45</v>
+        <v>3055.924</v>
       </c>
       <c r="U38">
-        <v>39.686999999999998</v>
+        <v>105.691</v>
       </c>
       <c r="V38">
-        <v>306.88200000000001</v>
+        <v>105.622</v>
       </c>
       <c r="W38">
-        <v>-212.179</v>
+        <v>-72.441000000000003</v>
       </c>
       <c r="X38">
-        <v>-77.356999999999999</v>
+        <v>-549.64200000000005</v>
       </c>
       <c r="Y38">
-        <v>140.46799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.83</v>
+        <v>-14.269</v>
       </c>
       <c r="AA38">
-        <v>167.65</v>
+        <v>32.393999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>167.971</v>
+        <v>72.522999999999996</v>
       </c>
       <c r="D39">
-        <v>603.35599999999999</v>
+        <v>215.67599999999999</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>402.99099999999999</v>
+        <v>128.113</v>
       </c>
       <c r="G39">
-        <v>1071.8499999999999</v>
+        <v>424.98399999999998</v>
       </c>
       <c r="H39">
-        <v>19891.335999999999</v>
+        <v>7508.134</v>
       </c>
       <c r="I39">
-        <v>92.596999999999994</v>
+        <v>48.368000000000002</v>
       </c>
       <c r="J39">
-        <v>8091.4570000000003</v>
+        <v>3916.931</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-710.13900000000001</v>
+        <v>-26.465</v>
       </c>
       <c r="N39">
-        <v>637.89499999999998</v>
+        <v>413.61900000000003</v>
       </c>
       <c r="O39">
-        <v>8976.0939999999991</v>
+        <v>4365.7610000000004</v>
       </c>
       <c r="P39">
-        <v>8276.482</v>
+        <v>3950.2719999999999</v>
       </c>
       <c r="Q39">
-        <v>740.80700000000002</v>
+        <v>17.606000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>10915.242</v>
+        <v>3142.373</v>
       </c>
       <c r="U39">
-        <v>777.995</v>
+        <v>123.297</v>
       </c>
       <c r="V39">
-        <v>341.70400000000001</v>
+        <v>68.882999999999996</v>
       </c>
       <c r="W39">
-        <v>-213.67099999999999</v>
+        <v>-72.602999999999994</v>
       </c>
       <c r="X39">
-        <v>535.16999999999996</v>
+        <v>-15.234</v>
       </c>
       <c r="Y39">
-        <v>185.02500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-9.7989999999999995</v>
+        <v>1.244</v>
       </c>
       <c r="AA39">
-        <v>167.971</v>
+        <v>72.522999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>170.828</v>
+        <v>51.125</v>
       </c>
       <c r="D40">
-        <v>577.44600000000003</v>
+        <v>216.78899999999999</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>378.95499999999998</v>
+        <v>135.03100000000001</v>
       </c>
       <c r="G40">
-        <v>632.13300000000004</v>
+        <v>648.21600000000001</v>
       </c>
       <c r="H40">
-        <v>19351.490000000002</v>
+        <v>7704.8440000000001</v>
       </c>
       <c r="I40">
-        <v>80.587999999999994</v>
+        <v>43.442999999999998</v>
       </c>
       <c r="J40">
-        <v>7630.21</v>
+        <v>3917.0250000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>603.678</v>
+        <v>409.93299999999999</v>
       </c>
       <c r="O40">
-        <v>8477.9310000000005</v>
+        <v>4360.5540000000001</v>
       </c>
       <c r="P40">
-        <v>7813.7169999999996</v>
+        <v>3948.5340000000001</v>
       </c>
       <c r="Q40">
-        <v>-452.72699999999998</v>
+        <v>250.42400000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>10873.558999999999</v>
+        <v>3344.29</v>
       </c>
       <c r="U40">
-        <v>322.81700000000001</v>
+        <v>373.721</v>
       </c>
       <c r="V40">
-        <v>287.21300000000002</v>
+        <v>102.84099999999999</v>
       </c>
       <c r="W40">
-        <v>-223.655</v>
+        <v>-73.655000000000001</v>
       </c>
       <c r="X40">
-        <v>-690.87900000000002</v>
+        <v>145.518</v>
       </c>
       <c r="Y40">
-        <v>183.50700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-4.452</v>
+        <v>1.5369999999999999</v>
       </c>
       <c r="AA40">
-        <v>170.828</v>
+        <v>51.127000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>147.703</v>
+        <v>24.655999999999999</v>
       </c>
       <c r="D41">
-        <v>573.01499999999999</v>
+        <v>225.233</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>359.60500000000002</v>
+        <v>136.17599999999999</v>
       </c>
       <c r="G41">
-        <v>420.226</v>
+        <v>520.827</v>
       </c>
       <c r="H41">
-        <v>19144.611000000001</v>
+        <v>7674.402</v>
       </c>
       <c r="I41">
-        <v>88.04</v>
+        <v>37.706000000000003</v>
       </c>
       <c r="J41">
-        <v>7563.6459999999997</v>
+        <v>3828</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>667.58799999999997</v>
+        <v>497.97500000000002</v>
       </c>
       <c r="O41">
-        <v>8471.7759999999998</v>
+        <v>4359.9409999999998</v>
       </c>
       <c r="P41">
-        <v>7746.5050000000001</v>
+        <v>3947.89</v>
       </c>
       <c r="Q41">
-        <v>-233.29400000000001</v>
+        <v>-144.61000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>10672.834999999999</v>
+        <v>3314.4609999999998</v>
       </c>
       <c r="U41">
-        <v>87.53</v>
+        <v>229.11099999999999</v>
       </c>
       <c r="V41">
-        <v>333.15699999999998</v>
+        <v>62.655000000000001</v>
       </c>
       <c r="W41">
-        <v>-223.67400000000001</v>
+        <v>-75.822999999999993</v>
       </c>
       <c r="X41">
-        <v>-430.25599999999997</v>
+        <v>-62.896000000000001</v>
       </c>
       <c r="Y41">
-        <v>182.85900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.0840000000000001</v>
+        <v>-23.757999999999999</v>
       </c>
       <c r="AA41">
-        <v>147.703</v>
+        <v>24.654</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>27.027000000000001</v>
+      </c>
+      <c r="D42">
+        <v>217.06899999999999</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>129.52600000000001</v>
+      </c>
+      <c r="G42">
+        <v>611.98199999999997</v>
+      </c>
+      <c r="H42">
+        <v>7821.4880000000003</v>
+      </c>
+      <c r="I42">
+        <v>34.433</v>
+      </c>
+      <c r="J42">
+        <v>3973.085</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>484.98099999999999</v>
+      </c>
+      <c r="O42">
+        <v>4491.6350000000002</v>
+      </c>
+      <c r="P42">
+        <v>3973.085</v>
+      </c>
+      <c r="Q42">
+        <v>77.314999999999998</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>1993</v>
+      </c>
+      <c r="T42">
+        <v>3329.8530000000001</v>
+      </c>
+      <c r="U42">
+        <v>304.40699999999998</v>
+      </c>
+      <c r="V42">
+        <v>97.727000000000004</v>
+      </c>
+      <c r="W42">
+        <v>-76.009</v>
+      </c>
+      <c r="X42">
+        <v>100.17700000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-28.062000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>27.027000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>30.341000000000001</v>
+      </c>
+      <c r="D43">
+        <v>227.226</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>140.65199999999999</v>
+      </c>
+      <c r="G43">
+        <v>618.02599999999995</v>
+      </c>
+      <c r="H43">
+        <v>7881.7619999999997</v>
+      </c>
+      <c r="I43">
+        <v>32.697000000000003</v>
+      </c>
+      <c r="J43">
+        <v>4021.7429999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-30.119</v>
+      </c>
+      <c r="N43">
+        <v>397.12099999999998</v>
+      </c>
+      <c r="O43">
+        <v>4454.2479999999996</v>
+      </c>
+      <c r="P43">
+        <v>4037.183</v>
+      </c>
+      <c r="Q43">
+        <v>-14.625999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3427.5140000000001</v>
+      </c>
+      <c r="U43">
+        <v>291.8</v>
+      </c>
+      <c r="V43">
+        <v>73.215000000000003</v>
+      </c>
+      <c r="W43">
+        <v>-76.557000000000002</v>
+      </c>
+      <c r="X43">
+        <v>36.841999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>30.34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>43.372</v>
+      </c>
+      <c r="D44">
+        <v>235.976</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>149.154</v>
+      </c>
+      <c r="G44">
+        <v>501.863</v>
+      </c>
+      <c r="H44">
+        <v>7942.7420000000002</v>
+      </c>
+      <c r="I44">
+        <v>33.820999999999998</v>
+      </c>
+      <c r="J44">
+        <v>3990.7330000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>428.70499999999998</v>
+      </c>
+      <c r="O44">
+        <v>4456.7269999999999</v>
+      </c>
+      <c r="P44">
+        <v>4005.3020000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-1.696</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3486.0149999999999</v>
+      </c>
+      <c r="U44">
+        <v>290.10399999999998</v>
+      </c>
+      <c r="V44">
+        <v>132.66399999999999</v>
+      </c>
+      <c r="W44">
+        <v>-77.825000000000003</v>
+      </c>
+      <c r="X44">
+        <v>33.984999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>43.372999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>44.823999999999998</v>
+      </c>
+      <c r="D45">
+        <v>246.334</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>154.958</v>
+      </c>
+      <c r="G45">
+        <v>909.66899999999998</v>
+      </c>
+      <c r="H45">
+        <v>8488.6569999999992</v>
+      </c>
+      <c r="I45">
+        <v>36.204000000000001</v>
+      </c>
+      <c r="J45">
+        <v>3864.386</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>423.61500000000001</v>
+      </c>
+      <c r="O45">
+        <v>4325.5510000000004</v>
+      </c>
+      <c r="P45">
+        <v>3864.386</v>
+      </c>
+      <c r="Q45">
+        <v>400.72699999999998</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4163.1059999999998</v>
+      </c>
+      <c r="U45">
+        <v>690.04899999999998</v>
+      </c>
+      <c r="V45">
+        <v>89.132999999999996</v>
+      </c>
+      <c r="W45">
+        <v>-79.045000000000002</v>
+      </c>
+      <c r="X45">
+        <v>488.048</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-16.620999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>44.823999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>323.08499999999998</v>
+      </c>
+      <c r="D46">
+        <v>231.67099999999999</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>147.15600000000001</v>
+      </c>
+      <c r="G46">
+        <v>830.779</v>
+      </c>
+      <c r="H46">
+        <v>8482.39</v>
+      </c>
+      <c r="I46">
+        <v>36.844999999999999</v>
+      </c>
+      <c r="J46">
+        <v>3599.1959999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>438.27100000000002</v>
+      </c>
+      <c r="O46">
+        <v>4073.4349999999999</v>
+      </c>
+      <c r="P46">
+        <v>3684.652</v>
+      </c>
+      <c r="Q46">
+        <v>-71.959000000000003</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2095</v>
+      </c>
+      <c r="T46">
+        <v>4408.9549999999999</v>
+      </c>
+      <c r="U46">
+        <v>616.85299999999995</v>
+      </c>
+      <c r="V46">
+        <v>134.34200000000001</v>
+      </c>
+      <c r="W46">
+        <v>-84.804000000000002</v>
+      </c>
+      <c r="X46">
+        <v>-232.642</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-16.771000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>323.08499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>57.758000000000003</v>
+      </c>
+      <c r="D47">
+        <v>246.55</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>158.77799999999999</v>
+      </c>
+      <c r="G47">
+        <v>465.46499999999997</v>
+      </c>
+      <c r="H47">
+        <v>8241.0589999999993</v>
+      </c>
+      <c r="I47">
+        <v>43.789000000000001</v>
+      </c>
+      <c r="J47">
+        <v>3355.375</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-231.43799999999999</v>
+      </c>
+      <c r="N47">
+        <v>450.24200000000002</v>
+      </c>
+      <c r="O47">
+        <v>3843.5920000000001</v>
+      </c>
+      <c r="P47">
+        <v>3454.752</v>
+      </c>
+      <c r="Q47">
+        <v>-368.61099999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4397.4669999999996</v>
+      </c>
+      <c r="U47">
+        <v>248.24199999999999</v>
+      </c>
+      <c r="V47">
+        <v>105.34</v>
+      </c>
+      <c r="W47">
+        <v>-84.926000000000002</v>
+      </c>
+      <c r="X47">
+        <v>-307.61099999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-5.6589999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>57.758000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>156.90899999999999</v>
+      </c>
+      <c r="D48">
+        <v>246.483</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>157.70500000000001</v>
+      </c>
+      <c r="G48">
+        <v>578.33399999999995</v>
+      </c>
+      <c r="H48">
+        <v>8412.0450000000001</v>
+      </c>
+      <c r="I48">
+        <v>43.356999999999999</v>
+      </c>
+      <c r="J48">
+        <v>3355.3980000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>427.38900000000001</v>
+      </c>
+      <c r="O48">
+        <v>3822.489</v>
+      </c>
+      <c r="P48">
+        <v>3464.6080000000002</v>
+      </c>
+      <c r="Q48">
+        <v>110.021</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4589.5559999999996</v>
+      </c>
+      <c r="U48">
+        <v>358.26299999999998</v>
+      </c>
+      <c r="V48">
+        <v>117.128</v>
+      </c>
+      <c r="W48">
+        <v>-92.396000000000001</v>
+      </c>
+      <c r="X48">
+        <v>19.303999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>7.8470000000000004</v>
+      </c>
+      <c r="AA48">
+        <v>156.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>86.844999999999999</v>
+      </c>
+      <c r="D49">
+        <v>266.87400000000002</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>173.928</v>
+      </c>
+      <c r="G49">
+        <v>863.45399999999995</v>
+      </c>
+      <c r="H49">
+        <v>8968.5660000000007</v>
+      </c>
+      <c r="I49">
+        <v>51.194000000000003</v>
+      </c>
+      <c r="J49">
+        <v>3804.4679999999998</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>381.76600000000002</v>
+      </c>
+      <c r="O49">
+        <v>4240.4880000000003</v>
+      </c>
+      <c r="P49">
+        <v>3877.3919999999998</v>
+      </c>
+      <c r="Q49">
+        <v>305.87</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4728.0780000000004</v>
+      </c>
+      <c r="U49">
+        <v>664.13300000000004</v>
+      </c>
+      <c r="V49">
+        <v>152.70500000000001</v>
+      </c>
+      <c r="W49">
+        <v>-93.543999999999997</v>
+      </c>
+      <c r="X49">
+        <v>443.14600000000002</v>
+      </c>
+      <c r="Y49">
+        <v>14.5</v>
+      </c>
+      <c r="Z49">
+        <v>-10.194000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>86.843999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>122.357</v>
+      </c>
+      <c r="D50">
+        <v>261.63400000000001</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>174.22499999999999</v>
+      </c>
+      <c r="G50">
+        <v>2927.4929999999999</v>
+      </c>
+      <c r="H50">
+        <v>11160.078</v>
+      </c>
+      <c r="I50">
+        <v>52.902999999999999</v>
+      </c>
+      <c r="J50">
+        <v>3904.5169999999998</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>370.69200000000001</v>
+      </c>
+      <c r="O50">
+        <v>4312.2579999999998</v>
+      </c>
+      <c r="P50">
+        <v>3904.5169999999998</v>
+      </c>
+      <c r="Q50">
+        <v>2069.4850000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2178</v>
+      </c>
+      <c r="T50">
+        <v>6847.82</v>
+      </c>
+      <c r="U50">
+        <v>2733.6179999999999</v>
+      </c>
+      <c r="V50">
+        <v>165.64599999999999</v>
+      </c>
+      <c r="W50">
+        <v>-94.706000000000003</v>
+      </c>
+      <c r="X50">
+        <v>2044.4929999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>14.592000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>122.357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>75.427000000000007</v>
+      </c>
+      <c r="D51">
+        <v>282.79300000000001</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>179.06299999999999</v>
+      </c>
+      <c r="G51">
+        <v>704.00699999999995</v>
+      </c>
+      <c r="H51">
+        <v>15187.364</v>
+      </c>
+      <c r="I51">
+        <v>53.317</v>
+      </c>
+      <c r="J51">
+        <v>5644.3710000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1607.2429999999999</v>
+      </c>
+      <c r="N51">
+        <v>816.58100000000002</v>
+      </c>
+      <c r="O51">
+        <v>6507.7070000000003</v>
+      </c>
+      <c r="P51">
+        <v>5928.2889999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-2286.1619999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>8679.6569999999992</v>
+      </c>
+      <c r="U51">
+        <v>447.45600000000002</v>
+      </c>
+      <c r="V51">
+        <v>81.388000000000005</v>
+      </c>
+      <c r="W51">
+        <v>-110.89100000000001</v>
+      </c>
+      <c r="X51">
+        <v>-1717.9690000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-2.9780000000000002</v>
+      </c>
+      <c r="AA51">
+        <v>75.427000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>36.220999999999997</v>
+      </c>
+      <c r="D52">
+        <v>377.267</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>244.78</v>
+      </c>
+      <c r="G52">
+        <v>389.54599999999999</v>
+      </c>
+      <c r="H52">
+        <v>14972.184999999999</v>
+      </c>
+      <c r="I52">
+        <v>84.983999999999995</v>
+      </c>
+      <c r="J52">
+        <v>5843.5959999999995</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>461.08699999999999</v>
+      </c>
+      <c r="O52">
+        <v>6388.9080000000004</v>
+      </c>
+      <c r="P52">
+        <v>5853.3190000000004</v>
+      </c>
+      <c r="Q52">
+        <v>-336.30900000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>8583.277</v>
+      </c>
+      <c r="U52">
+        <v>111.14700000000001</v>
+      </c>
+      <c r="V52">
+        <v>185.82300000000001</v>
+      </c>
+      <c r="W52">
+        <v>-138.376</v>
+      </c>
+      <c r="X52">
+        <v>-287.363</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AA52">
+        <v>36.218000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-10.718999999999999</v>
+      </c>
+      <c r="D53">
+        <v>392.44900000000001</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>251.232</v>
+      </c>
+      <c r="G53">
+        <v>412.31799999999998</v>
+      </c>
+      <c r="H53">
+        <v>15145.107</v>
+      </c>
+      <c r="I53">
+        <v>84.027000000000001</v>
+      </c>
+      <c r="J53">
+        <v>6108.2370000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>462.26499999999999</v>
+      </c>
+      <c r="O53">
+        <v>6653.5219999999999</v>
+      </c>
+      <c r="P53">
+        <v>6112.6319999999996</v>
+      </c>
+      <c r="Q53">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>8491.5849999999991</v>
+      </c>
+      <c r="U53">
+        <v>112.91</v>
+      </c>
+      <c r="V53">
+        <v>202.71199999999999</v>
+      </c>
+      <c r="W53">
+        <v>-138.39099999999999</v>
+      </c>
+      <c r="X53">
+        <v>109.712</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>18.949000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>-10.715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>252.21199999999999</v>
+      </c>
+      <c r="D54">
+        <v>384.98500000000001</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>246.40299999999999</v>
+      </c>
+      <c r="G54">
+        <v>577.34400000000005</v>
+      </c>
+      <c r="H54">
+        <v>15328.143</v>
+      </c>
+      <c r="I54">
+        <v>94.632000000000005</v>
+      </c>
+      <c r="J54">
+        <v>6134.3509999999997</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>532.15099999999995</v>
+      </c>
+      <c r="O54">
+        <v>6711.0959999999995</v>
+      </c>
+      <c r="P54">
+        <v>6134.3509999999997</v>
+      </c>
+      <c r="Q54">
+        <v>168.44499999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2900</v>
+      </c>
+      <c r="T54">
+        <v>8617.0470000000005</v>
+      </c>
+      <c r="U54">
+        <v>281.35500000000002</v>
+      </c>
+      <c r="V54">
+        <v>254.392</v>
+      </c>
+      <c r="W54">
+        <v>-138.392</v>
+      </c>
+      <c r="X54">
+        <v>-99.784000000000006</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-0.624</v>
+      </c>
+      <c r="AA54">
+        <v>252.21199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>141.739</v>
+      </c>
+      <c r="D55">
+        <v>405.298</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>261.55599999999998</v>
+      </c>
+      <c r="G55">
+        <v>660.65</v>
+      </c>
+      <c r="H55">
+        <v>15570.239</v>
+      </c>
+      <c r="I55">
+        <v>94.132999999999996</v>
+      </c>
+      <c r="J55">
+        <v>6369.0450000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-3.8319999999999999</v>
+      </c>
+      <c r="N55">
+        <v>531.62800000000004</v>
+      </c>
+      <c r="O55">
+        <v>6947.1660000000002</v>
+      </c>
+      <c r="P55">
+        <v>6381.7979999999998</v>
+      </c>
+      <c r="Q55">
+        <v>104.649</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>8623.0730000000003</v>
+      </c>
+      <c r="U55">
+        <v>386.19</v>
+      </c>
+      <c r="V55">
+        <v>220.31700000000001</v>
+      </c>
+      <c r="W55">
+        <v>-138.393</v>
+      </c>
+      <c r="X55">
+        <v>108.696</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>15.194000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>141.739</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>158.08600000000001</v>
+      </c>
+      <c r="D56">
+        <v>421.51600000000002</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>276.00099999999998</v>
+      </c>
+      <c r="G56">
+        <v>724.26599999999996</v>
+      </c>
+      <c r="H56">
+        <v>15657.950999999999</v>
+      </c>
+      <c r="I56">
+        <v>96.021000000000001</v>
+      </c>
+      <c r="J56">
+        <v>6245.7439999999997</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>525.649</v>
+      </c>
+      <c r="O56">
+        <v>6820.335</v>
+      </c>
+      <c r="P56">
+        <v>6254.8739999999998</v>
+      </c>
+      <c r="Q56">
+        <v>39.737000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>8837.616</v>
+      </c>
+      <c r="U56">
+        <v>425.74099999999999</v>
+      </c>
+      <c r="V56">
+        <v>189.39400000000001</v>
+      </c>
+      <c r="W56">
+        <v>-150.21700000000001</v>
+      </c>
+      <c r="X56">
+        <v>-62.505000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>37.106000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>158.08600000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>241.10400000000001</v>
+      </c>
+      <c r="D57">
+        <v>561.11699999999996</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>410.50299999999999</v>
+      </c>
+      <c r="G57">
+        <v>746.20600000000002</v>
+      </c>
+      <c r="H57">
+        <v>15881.178</v>
+      </c>
+      <c r="I57">
+        <v>98.094999999999999</v>
+      </c>
+      <c r="J57">
+        <v>6237.1270000000004</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>536.74800000000005</v>
+      </c>
+      <c r="O57">
+        <v>6823.3</v>
+      </c>
+      <c r="P57">
+        <v>6241.768</v>
+      </c>
+      <c r="Q57">
+        <v>14.287000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>9057.8780000000006</v>
+      </c>
+      <c r="U57">
+        <v>440.02800000000002</v>
+      </c>
+      <c r="V57">
+        <v>231.71799999999999</v>
+      </c>
+      <c r="W57">
+        <v>-152.02199999999999</v>
+      </c>
+      <c r="X57">
+        <v>-32.451999999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>139.90899999999999</v>
+      </c>
+      <c r="AA57">
+        <v>241.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>142.63800000000001</v>
+      </c>
+      <c r="D58">
+        <v>370.43799999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>227.22900000000001</v>
+      </c>
+      <c r="G58">
+        <v>839.49400000000003</v>
+      </c>
+      <c r="H58">
+        <v>16140.578</v>
+      </c>
+      <c r="I58">
+        <v>101.916</v>
+      </c>
+      <c r="J58">
+        <v>6489.7070000000003</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>542.875</v>
+      </c>
+      <c r="O58">
+        <v>7081.4080000000004</v>
+      </c>
+      <c r="P58">
+        <v>6489.7070000000003</v>
+      </c>
+      <c r="Q58">
+        <v>69.432000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3006</v>
+      </c>
+      <c r="T58">
+        <v>9059.17</v>
+      </c>
+      <c r="U58">
+        <v>509.46</v>
+      </c>
+      <c r="V58">
+        <v>245.21199999999999</v>
+      </c>
+      <c r="W58">
+        <v>-153.011</v>
+      </c>
+      <c r="X58">
+        <v>144.48500000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>6.0739999999999998</v>
+      </c>
+      <c r="AA58">
+        <v>142.63800000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>208.14400000000001</v>
+      </c>
+      <c r="D59">
+        <v>476.93299999999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>315.79199999999997</v>
+      </c>
+      <c r="G59">
+        <v>554.63199999999995</v>
+      </c>
+      <c r="H59">
+        <v>16263.748</v>
+      </c>
+      <c r="I59">
+        <v>94.131</v>
+      </c>
+      <c r="J59">
+        <v>5962.5230000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-4.2089999999999996</v>
+      </c>
+      <c r="N59">
+        <v>1142.5319999999999</v>
+      </c>
+      <c r="O59">
+        <v>7155.7280000000001</v>
+      </c>
+      <c r="P59">
+        <v>6562.3310000000001</v>
+      </c>
+      <c r="Q59">
+        <v>-313.34800000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>9108.02</v>
+      </c>
+      <c r="U59">
+        <v>194.928</v>
+      </c>
+      <c r="V59">
+        <v>236.38</v>
+      </c>
+      <c r="W59">
+        <v>-153.095</v>
+      </c>
+      <c r="X59">
+        <v>-107.529</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>40.493000000000002</v>
+      </c>
+      <c r="AA59">
+        <v>208.14400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>172.32499999999999</v>
+      </c>
+      <c r="D60">
+        <v>471.26499999999999</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>312.61</v>
+      </c>
+      <c r="G60">
+        <v>406.62700000000001</v>
+      </c>
+      <c r="H60">
+        <v>16320.476000000001</v>
+      </c>
+      <c r="I60">
+        <v>109.158</v>
+      </c>
+      <c r="J60">
+        <v>6374.4889999999996</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>671.51099999999997</v>
+      </c>
+      <c r="O60">
+        <v>7099.4030000000002</v>
+      </c>
+      <c r="P60">
+        <v>6487.13</v>
+      </c>
+      <c r="Q60">
+        <v>-130.98599999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>9221.0730000000003</v>
+      </c>
+      <c r="U60">
+        <v>65.126000000000005</v>
+      </c>
+      <c r="V60">
+        <v>255.52199999999999</v>
+      </c>
+      <c r="W60">
+        <v>-165.14500000000001</v>
+      </c>
+      <c r="X60">
+        <v>-134.358</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-4.4379999999999997</v>
+      </c>
+      <c r="AA60">
+        <v>172.32400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>206.14099999999999</v>
+      </c>
+      <c r="D61">
+        <v>495.91399999999999</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>326.452</v>
+      </c>
+      <c r="G61">
+        <v>652.66399999999999</v>
+      </c>
+      <c r="H61">
+        <v>16781.978999999999</v>
+      </c>
+      <c r="I61">
+        <v>103.042</v>
+      </c>
+      <c r="J61">
+        <v>6198.6890000000003</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>689.27700000000004</v>
+      </c>
+      <c r="O61">
+        <v>6942.0140000000001</v>
+      </c>
+      <c r="P61">
+        <v>6306.7269999999999</v>
+      </c>
+      <c r="Q61">
+        <v>253.43100000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>9839.9650000000001</v>
+      </c>
+      <c r="U61">
+        <v>318.55700000000002</v>
+      </c>
+      <c r="V61">
+        <v>302.37</v>
+      </c>
+      <c r="W61">
+        <v>-166.011</v>
+      </c>
+      <c r="X61">
+        <v>243.227</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>10.936999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>206.142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>155.428</v>
+      </c>
+      <c r="D62">
+        <v>451.33699999999999</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>298.34800000000001</v>
+      </c>
+      <c r="G62">
+        <v>734.5</v>
+      </c>
+      <c r="H62">
+        <v>16931.305</v>
+      </c>
+      <c r="I62">
+        <v>98.802000000000007</v>
+      </c>
+      <c r="J62">
+        <v>6456.9480000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>570.702</v>
+      </c>
+      <c r="O62">
+        <v>7080.7820000000002</v>
+      </c>
+      <c r="P62">
+        <v>6456.9480000000003</v>
+      </c>
+      <c r="Q62">
+        <v>81.95</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2981</v>
+      </c>
+      <c r="T62">
+        <v>9850.5229999999992</v>
+      </c>
+      <c r="U62">
+        <v>400.50700000000001</v>
+      </c>
+      <c r="V62">
+        <v>262.48200000000003</v>
+      </c>
+      <c r="W62">
+        <v>-170.99700000000001</v>
+      </c>
+      <c r="X62">
+        <v>32.47</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>55.606999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>155.428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>237.93100000000001</v>
+      </c>
+      <c r="D63">
+        <v>536.46699999999998</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>366.31200000000001</v>
+      </c>
+      <c r="G63">
+        <v>507.41</v>
+      </c>
+      <c r="H63">
+        <v>17043.39</v>
+      </c>
+      <c r="I63">
+        <v>99.644000000000005</v>
+      </c>
+      <c r="J63">
+        <v>6502.58</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-19.681999999999999</v>
+      </c>
+      <c r="N63">
+        <v>628.38099999999997</v>
+      </c>
+      <c r="O63">
+        <v>7186.7309999999998</v>
+      </c>
+      <c r="P63">
+        <v>6502.58</v>
+      </c>
+      <c r="Q63">
+        <v>-302.96600000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>9856.6589999999997</v>
+      </c>
+      <c r="U63">
+        <v>97.540999999999997</v>
+      </c>
+      <c r="V63">
+        <v>277.78199999999998</v>
+      </c>
+      <c r="W63">
+        <v>-171.15100000000001</v>
+      </c>
+      <c r="X63">
+        <v>-196.02099999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>57.738999999999997</v>
+      </c>
+      <c r="AA63">
+        <v>237.93100000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>197.446</v>
+      </c>
+      <c r="D64">
+        <v>529.45799999999997</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>358.012</v>
+      </c>
+      <c r="G64">
+        <v>530.73199999999997</v>
+      </c>
+      <c r="H64">
+        <v>17395.066999999999</v>
+      </c>
+      <c r="I64">
+        <v>100.876</v>
+      </c>
+      <c r="J64">
+        <v>6833.991</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>636.495</v>
+      </c>
+      <c r="O64">
+        <v>7528.5789999999997</v>
+      </c>
+      <c r="P64">
+        <v>6833.991</v>
+      </c>
+      <c r="Q64">
+        <v>84.765000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>9866.4879999999994</v>
+      </c>
+      <c r="U64">
+        <v>182.30600000000001</v>
+      </c>
+      <c r="V64">
+        <v>275.39600000000002</v>
+      </c>
+      <c r="W64">
+        <v>-185.084</v>
+      </c>
+      <c r="X64">
+        <v>137.13300000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-120.517</v>
+      </c>
+      <c r="AA64">
+        <v>197.44399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>356.39</v>
+      </c>
+      <c r="D65">
+        <v>515.86900000000003</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>334.93799999999999</v>
+      </c>
+      <c r="G65">
+        <v>494.17700000000002</v>
+      </c>
+      <c r="H65">
+        <v>17588.656999999999</v>
+      </c>
+      <c r="I65">
+        <v>100.113</v>
+      </c>
+      <c r="J65">
+        <v>6811.4340000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>673.154</v>
+      </c>
+      <c r="O65">
+        <v>7542.0829999999996</v>
+      </c>
+      <c r="P65">
+        <v>6815.97</v>
+      </c>
+      <c r="Q65">
+        <v>-116.407</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>10046.574000000001</v>
+      </c>
+      <c r="U65">
+        <v>65.899000000000001</v>
+      </c>
+      <c r="V65">
+        <v>307.54899999999998</v>
+      </c>
+      <c r="W65">
+        <v>-185.25</v>
+      </c>
+      <c r="X65">
+        <v>-269.85599999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>155.077</v>
+      </c>
+      <c r="AA65">
+        <v>356.392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>242.23500000000001</v>
+      </c>
+      <c r="D66">
+        <v>470.267</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>307.327</v>
+      </c>
+      <c r="G66">
+        <v>618.98199999999997</v>
+      </c>
+      <c r="H66">
+        <v>17867.271000000001</v>
+      </c>
+      <c r="I66">
+        <v>100.998</v>
+      </c>
+      <c r="J66">
+        <v>7030.88</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>600.18600000000004</v>
+      </c>
+      <c r="O66">
+        <v>7688.0889999999999</v>
+      </c>
+      <c r="P66">
+        <v>7030.88</v>
+      </c>
+      <c r="Q66">
+        <v>159.25700000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3071</v>
+      </c>
+      <c r="T66">
+        <v>10179.182000000001</v>
+      </c>
+      <c r="U66">
+        <v>214.994</v>
+      </c>
+      <c r="V66">
+        <v>299.54500000000002</v>
+      </c>
+      <c r="W66">
+        <v>-185.26400000000001</v>
+      </c>
+      <c r="X66">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>9.5489999999999995</v>
+      </c>
+      <c r="AA66">
+        <v>242.23500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>235.875</v>
+      </c>
+      <c r="D67">
+        <v>538.99800000000005</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>362.68400000000003</v>
+      </c>
+      <c r="G67">
+        <v>655.98099999999999</v>
+      </c>
+      <c r="H67">
+        <v>17978.420999999998</v>
+      </c>
+      <c r="I67">
+        <v>96.671999999999997</v>
+      </c>
+      <c r="J67">
+        <v>7005.7290000000003</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-21.905000000000001</v>
+      </c>
+      <c r="N67">
+        <v>640.10900000000004</v>
+      </c>
+      <c r="O67">
+        <v>7703.0209999999997</v>
+      </c>
+      <c r="P67">
+        <v>7005.7290000000003</v>
+      </c>
+      <c r="Q67">
+        <v>38.743000000000002</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>10275.4</v>
+      </c>
+      <c r="U67">
+        <v>121.705</v>
+      </c>
+      <c r="V67">
+        <v>299.89499999999998</v>
+      </c>
+      <c r="W67">
+        <v>-185.19200000000001</v>
+      </c>
+      <c r="X67">
+        <v>-152.27199999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>6.1779999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>235.875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>165.22499999999999</v>
+      </c>
+      <c r="D68">
+        <v>522.96</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>342.13799999999998</v>
+      </c>
+      <c r="G68">
+        <v>555.40599999999995</v>
+      </c>
+      <c r="H68">
+        <v>17943.744999999999</v>
+      </c>
+      <c r="I68">
+        <v>94.534999999999997</v>
+      </c>
+      <c r="J68">
+        <v>6991.759</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>601.55600000000004</v>
+      </c>
+      <c r="O68">
+        <v>7652.491</v>
+      </c>
+      <c r="P68">
+        <v>6991.759</v>
+      </c>
+      <c r="Q68">
+        <v>-75.566999999999993</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>10291.254000000001</v>
+      </c>
+      <c r="U68">
+        <v>53.476999999999997</v>
+      </c>
+      <c r="V68">
+        <v>275.76100000000002</v>
+      </c>
+      <c r="W68">
+        <v>-195.53100000000001</v>
+      </c>
+      <c r="X68">
+        <v>-206.48400000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>5.5739999999999998</v>
+      </c>
+      <c r="AA68">
+        <v>165.22499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>238.24799999999999</v>
+      </c>
+      <c r="D69">
+        <v>571.65499999999997</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>383.57799999999997</v>
+      </c>
+      <c r="G69">
+        <v>486.22500000000002</v>
+      </c>
+      <c r="H69">
+        <v>18177.837</v>
+      </c>
+      <c r="I69">
+        <v>84.337999999999994</v>
+      </c>
+      <c r="J69">
+        <v>7128.03</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>648.48699999999997</v>
+      </c>
+      <c r="O69">
+        <v>7835.2849999999999</v>
+      </c>
+      <c r="P69">
+        <v>7128.03</v>
+      </c>
+      <c r="Q69">
+        <v>-76.042000000000002</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>10342.552</v>
+      </c>
+      <c r="U69">
+        <v>36.042000000000002</v>
+      </c>
+      <c r="V69">
+        <v>358.12200000000001</v>
+      </c>
+      <c r="W69">
+        <v>-195.96199999999999</v>
+      </c>
+      <c r="X69">
+        <v>-63.136000000000003</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>62.993000000000002</v>
+      </c>
+      <c r="AA69">
+        <v>238.24799999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>237.57300000000001</v>
+      </c>
+      <c r="D70">
+        <v>555.649</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>375.17500000000001</v>
+      </c>
+      <c r="G70">
+        <v>442.61399999999998</v>
+      </c>
+      <c r="H70">
+        <v>18414.821</v>
+      </c>
+      <c r="I70">
+        <v>85.376999999999995</v>
+      </c>
+      <c r="J70">
+        <v>7329.47</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>632.77599999999995</v>
+      </c>
+      <c r="O70">
+        <v>8020.7190000000001</v>
+      </c>
+      <c r="P70">
+        <v>7329.47</v>
+      </c>
+      <c r="Q70">
+        <v>-15.205</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>3112</v>
+      </c>
+      <c r="T70">
+        <v>10394.102000000001</v>
+      </c>
+      <c r="U70">
+        <v>67.087999999999994</v>
+      </c>
+      <c r="V70">
+        <v>322.47899999999998</v>
+      </c>
+      <c r="W70">
+        <v>-195.97200000000001</v>
+      </c>
+      <c r="X70">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-9.9329999999999998</v>
+      </c>
+      <c r="AA70">
+        <v>237.57300000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>141.643</v>
+      </c>
+      <c r="D71">
+        <v>562.53200000000004</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>370.69099999999997</v>
+      </c>
+      <c r="G71">
+        <v>516.21100000000001</v>
+      </c>
+      <c r="H71">
+        <v>18646.447</v>
+      </c>
+      <c r="I71">
+        <v>83.209000000000003</v>
+      </c>
+      <c r="J71">
+        <v>7599.4549999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-28.850999999999999</v>
+      </c>
+      <c r="N71">
+        <v>647.15599999999995</v>
+      </c>
+      <c r="O71">
+        <v>8305.3709999999992</v>
+      </c>
+      <c r="P71">
+        <v>7599.4549999999999</v>
+      </c>
+      <c r="Q71">
+        <v>69.501000000000005</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>10341.075999999999</v>
+      </c>
+      <c r="U71">
+        <v>137.244</v>
+      </c>
+      <c r="V71">
+        <v>315.91300000000001</v>
+      </c>
+      <c r="W71">
+        <v>-195.999</v>
+      </c>
+      <c r="X71">
+        <v>72.867999999999995</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-2.355</v>
+      </c>
+      <c r="AA71">
+        <v>141.643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>254.66200000000001</v>
+      </c>
+      <c r="D72">
+        <v>570.02800000000002</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>378.15100000000001</v>
+      </c>
+      <c r="G72">
+        <v>583.55999999999995</v>
+      </c>
+      <c r="H72">
+        <v>18671.008000000002</v>
+      </c>
+      <c r="I72">
+        <v>92.798000000000002</v>
+      </c>
+      <c r="J72">
+        <v>7571.2780000000002</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>634.03</v>
+      </c>
+      <c r="O72">
+        <v>8266.8130000000001</v>
+      </c>
+      <c r="P72">
+        <v>7571.2780000000002</v>
+      </c>
+      <c r="Q72">
+        <v>78.489999999999995</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10404.195</v>
+      </c>
+      <c r="U72">
+        <v>101.565</v>
+      </c>
+      <c r="V72">
+        <v>309.38400000000001</v>
+      </c>
+      <c r="W72">
+        <v>-203.071</v>
+      </c>
+      <c r="X72">
+        <v>-233.49299999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-2.734</v>
+      </c>
+      <c r="AA72">
+        <v>254.66200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>192.48599999999999</v>
+      </c>
+      <c r="D73">
+        <v>577.37699999999995</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>383.387</v>
+      </c>
+      <c r="G73">
+        <v>498.47300000000001</v>
+      </c>
+      <c r="H73">
+        <v>18662.118999999999</v>
+      </c>
+      <c r="I73">
+        <v>92.322999999999993</v>
+      </c>
+      <c r="J73">
+        <v>7533.2280000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>664.35699999999997</v>
+      </c>
+      <c r="O73">
+        <v>8258.6440000000002</v>
+      </c>
+      <c r="P73">
+        <v>7533.2280000000001</v>
+      </c>
+      <c r="Q73">
+        <v>-68.305999999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>10403.475</v>
+      </c>
+      <c r="U73">
+        <v>55.887</v>
+      </c>
+      <c r="V73">
+        <v>355.26</v>
+      </c>
+      <c r="W73">
+        <v>-203.08199999999999</v>
+      </c>
+      <c r="X73">
+        <v>-244.791</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-0.877</v>
+      </c>
+      <c r="AA73">
+        <v>192.48599999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>385.73399999999998</v>
+      </c>
+      <c r="D74">
+        <v>579.21100000000001</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>390.71699999999998</v>
+      </c>
+      <c r="G74">
+        <v>371.005</v>
+      </c>
+      <c r="H74">
+        <v>18380.2</v>
+      </c>
+      <c r="I74">
+        <v>96.983000000000004</v>
+      </c>
+      <c r="J74">
+        <v>7040.2629999999999</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>645.67200000000003</v>
+      </c>
+      <c r="O74">
+        <v>7744.35</v>
+      </c>
+      <c r="P74">
+        <v>7040.2629999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-63.726999999999997</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3087</v>
+      </c>
+      <c r="T74">
+        <v>10635.85</v>
+      </c>
+      <c r="U74">
+        <v>91.659000000000006</v>
+      </c>
+      <c r="V74">
+        <v>320.55399999999997</v>
+      </c>
+      <c r="W74">
+        <v>-203.08699999999999</v>
+      </c>
+      <c r="X74">
+        <v>-283.08600000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>30.465</v>
+      </c>
+      <c r="AA74">
+        <v>385.73399999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>170.36600000000001</v>
+      </c>
+      <c r="D75">
+        <v>565.65599999999995</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>380.45800000000003</v>
+      </c>
+      <c r="G75">
+        <v>359.327</v>
+      </c>
+      <c r="H75">
+        <v>18639.983</v>
+      </c>
+      <c r="I75">
+        <v>102.42700000000001</v>
+      </c>
+      <c r="J75">
+        <v>7040.067</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1.6679999999999999</v>
+      </c>
+      <c r="N75">
+        <v>661.62400000000002</v>
+      </c>
+      <c r="O75">
+        <v>7902.5879999999997</v>
+      </c>
+      <c r="P75">
+        <v>7180.5029999999997</v>
+      </c>
+      <c r="Q75">
+        <v>-22.657</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>10737.395</v>
+      </c>
+      <c r="U75">
+        <v>62.999000000000002</v>
+      </c>
+      <c r="V75">
+        <v>361.786</v>
+      </c>
+      <c r="W75">
+        <v>-203.499</v>
+      </c>
+      <c r="X75">
+        <v>-71.257000000000005</v>
+      </c>
+      <c r="Y75">
+        <v>140.43600000000001</v>
+      </c>
+      <c r="Z75">
+        <v>-0.72399999999999998</v>
+      </c>
+      <c r="AA75">
+        <v>170.36600000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>168.28100000000001</v>
+      </c>
+      <c r="D76">
+        <v>577.99300000000005</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>381.11599999999999</v>
+      </c>
+      <c r="G76">
+        <v>518.42700000000002</v>
+      </c>
+      <c r="H76">
+        <v>18932.575000000001</v>
+      </c>
+      <c r="I76">
+        <v>104.545</v>
+      </c>
+      <c r="J76">
+        <v>7352.2169999999996</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>625.14400000000001</v>
+      </c>
+      <c r="O76">
+        <v>8178.7070000000003</v>
+      </c>
+      <c r="P76">
+        <v>7490.38</v>
+      </c>
+      <c r="Q76">
+        <v>134.83699999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>10753.868</v>
+      </c>
+      <c r="U76">
+        <v>243.57599999999999</v>
+      </c>
+      <c r="V76">
+        <v>275.94600000000003</v>
+      </c>
+      <c r="W76">
+        <v>-211.79599999999999</v>
+      </c>
+      <c r="X76">
+        <v>135.72900000000001</v>
+      </c>
+      <c r="Y76">
+        <v>138.16300000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>168.28100000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>279.67700000000002</v>
+      </c>
+      <c r="D77">
+        <v>589.78800000000001</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>391.79399999999998</v>
+      </c>
+      <c r="G77">
+        <v>537.23599999999999</v>
+      </c>
+      <c r="H77">
+        <v>19060.467000000001</v>
+      </c>
+      <c r="I77">
+        <v>93.593000000000004</v>
+      </c>
+      <c r="J77">
+        <v>7361.2790000000005</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>682.09400000000005</v>
+      </c>
+      <c r="O77">
+        <v>8242.0390000000007</v>
+      </c>
+      <c r="P77">
+        <v>7497.9840000000004</v>
+      </c>
+      <c r="Q77">
+        <v>4.71</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10818.428</v>
+      </c>
+      <c r="U77">
+        <v>246.42500000000001</v>
+      </c>
+      <c r="V77">
+        <v>377.19</v>
+      </c>
+      <c r="W77">
+        <v>-212.172</v>
+      </c>
+      <c r="X77">
+        <v>-205.3</v>
+      </c>
+      <c r="Y77">
+        <v>136.70500000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="AA77">
+        <v>279.67700000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>167.65</v>
+      </c>
+      <c r="D78">
+        <v>594.053</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>405.04899999999998</v>
+      </c>
+      <c r="G78">
+        <v>315.565</v>
+      </c>
+      <c r="H78">
+        <v>19121.050999999999</v>
+      </c>
+      <c r="I78">
+        <v>92.135000000000005</v>
+      </c>
+      <c r="J78">
+        <v>7296.29</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>629.09100000000001</v>
+      </c>
+      <c r="O78">
+        <v>8127.6009999999997</v>
+      </c>
+      <c r="P78">
+        <v>7436.7579999999998</v>
+      </c>
+      <c r="Q78">
+        <v>-207.14</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>3122</v>
+      </c>
+      <c r="T78">
+        <v>10993.45</v>
+      </c>
+      <c r="U78">
+        <v>39.686999999999998</v>
+      </c>
+      <c r="V78">
+        <v>306.88200000000001</v>
+      </c>
+      <c r="W78">
+        <v>-212.179</v>
+      </c>
+      <c r="X78">
+        <v>-77.356999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>140.46799999999999</v>
+      </c>
+      <c r="Z78">
+        <v>0.83</v>
+      </c>
+      <c r="AA78">
+        <v>167.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>167.971</v>
+      </c>
+      <c r="D79">
+        <v>603.35599999999999</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>402.99099999999999</v>
+      </c>
+      <c r="G79">
+        <v>1071.8499999999999</v>
+      </c>
+      <c r="H79">
+        <v>19891.335999999999</v>
+      </c>
+      <c r="I79">
+        <v>92.596999999999994</v>
+      </c>
+      <c r="J79">
+        <v>8091.4570000000003</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-710.13900000000001</v>
+      </c>
+      <c r="N79">
+        <v>637.89499999999998</v>
+      </c>
+      <c r="O79">
+        <v>8976.0939999999991</v>
+      </c>
+      <c r="P79">
+        <v>8276.482</v>
+      </c>
+      <c r="Q79">
+        <v>740.80700000000002</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10915.242</v>
+      </c>
+      <c r="U79">
+        <v>777.995</v>
+      </c>
+      <c r="V79">
+        <v>341.70400000000001</v>
+      </c>
+      <c r="W79">
+        <v>-213.67099999999999</v>
+      </c>
+      <c r="X79">
+        <v>535.16999999999996</v>
+      </c>
+      <c r="Y79">
+        <v>185.02500000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-9.7989999999999995</v>
+      </c>
+      <c r="AA79">
+        <v>167.971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>170.828</v>
+      </c>
+      <c r="D80">
+        <v>577.44600000000003</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>378.95499999999998</v>
+      </c>
+      <c r="G80">
+        <v>632.13300000000004</v>
+      </c>
+      <c r="H80">
+        <v>19351.490000000002</v>
+      </c>
+      <c r="I80">
+        <v>80.587999999999994</v>
+      </c>
+      <c r="J80">
+        <v>7630.21</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>603.678</v>
+      </c>
+      <c r="O80">
+        <v>8477.9310000000005</v>
+      </c>
+      <c r="P80">
+        <v>7813.7169999999996</v>
+      </c>
+      <c r="Q80">
+        <v>-452.72699999999998</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>10873.558999999999</v>
+      </c>
+      <c r="U80">
+        <v>322.81700000000001</v>
+      </c>
+      <c r="V80">
+        <v>287.21300000000002</v>
+      </c>
+      <c r="W80">
+        <v>-223.655</v>
+      </c>
+      <c r="X80">
+        <v>-690.87900000000002</v>
+      </c>
+      <c r="Y80">
+        <v>183.50700000000001</v>
+      </c>
+      <c r="Z80">
+        <v>-4.452</v>
+      </c>
+      <c r="AA80">
+        <v>170.828</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>147.703</v>
+      </c>
+      <c r="D81">
+        <v>573.01499999999999</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>359.60500000000002</v>
+      </c>
+      <c r="G81">
+        <v>420.226</v>
+      </c>
+      <c r="H81">
+        <v>19144.611000000001</v>
+      </c>
+      <c r="I81">
+        <v>88.04</v>
+      </c>
+      <c r="J81">
+        <v>7563.6459999999997</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>667.58799999999997</v>
+      </c>
+      <c r="O81">
+        <v>8471.7759999999998</v>
+      </c>
+      <c r="P81">
+        <v>7746.5050000000001</v>
+      </c>
+      <c r="Q81">
+        <v>-233.29400000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10672.834999999999</v>
+      </c>
+      <c r="U81">
+        <v>87.53</v>
+      </c>
+      <c r="V81">
+        <v>333.15699999999998</v>
+      </c>
+      <c r="W81">
+        <v>-223.67400000000001</v>
+      </c>
+      <c r="X81">
+        <v>-430.25599999999997</v>
+      </c>
+      <c r="Y81">
+        <v>182.85900000000001</v>
+      </c>
+      <c r="Z81">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="AA81">
+        <v>147.703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>341.12799999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>548.71</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>337.68400000000003</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>547.79899999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>19199.144</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>93.608999999999995</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7564.3370000000004</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>657.899</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>8444.2929999999997</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>7745.8159999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>131.13200000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2966</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>10754.851000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>216.976</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>257.541</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-222.21199999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-268.29899999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>166.12899999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-11.763999999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>341.12799999999999</v>
       </c>
     </row>
